--- a/school_excel_data/2学期期末/2学期期末_社会.xlsx
+++ b/school_excel_data/2学期期末/2学期期末_社会.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school\refactor\2学期期末\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school_excel_data\2学期期末\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6326,7 +6326,7 @@
   <dimension ref="A1:J1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1002"/>
+      <selection activeCell="G2" sqref="G2:G1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6387,7 +6387,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H2">
         <v>66</v>
@@ -6419,7 +6419,7 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H3">
         <v>74</v>
@@ -6451,7 +6451,7 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -6483,7 +6483,7 @@
         <v>22</v>
       </c>
       <c r="G5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H5">
         <v>57</v>
@@ -6515,7 +6515,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H6">
         <v>62</v>
@@ -6547,7 +6547,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H7">
         <v>31</v>
@@ -6579,7 +6579,7 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H8">
         <v>76</v>
@@ -6611,7 +6611,7 @@
         <v>19</v>
       </c>
       <c r="G9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H9">
         <v>58</v>
@@ -6643,7 +6643,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H10">
         <v>57</v>
@@ -6675,7 +6675,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H11">
         <v>66</v>
@@ -6707,7 +6707,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H12">
         <v>40</v>
@@ -6739,7 +6739,7 @@
         <v>16</v>
       </c>
       <c r="G13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H13">
         <v>85</v>
@@ -6771,7 +6771,7 @@
         <v>19</v>
       </c>
       <c r="G14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H14">
         <v>63</v>
@@ -6803,7 +6803,7 @@
         <v>22</v>
       </c>
       <c r="G15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H15">
         <v>32</v>
@@ -6835,7 +6835,7 @@
         <v>25</v>
       </c>
       <c r="G16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H16">
         <v>30</v>
@@ -6867,7 +6867,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H17">
         <v>37</v>
@@ -6899,7 +6899,7 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H18">
         <v>60</v>
@@ -6931,7 +6931,7 @@
         <v>19</v>
       </c>
       <c r="G19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H19">
         <v>52</v>
@@ -6963,7 +6963,7 @@
         <v>22</v>
       </c>
       <c r="G20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H20">
         <v>70</v>
@@ -6995,7 +6995,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -7027,7 +7027,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H22">
         <v>90</v>
@@ -7059,7 +7059,7 @@
         <v>16</v>
       </c>
       <c r="G23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H23">
         <v>46</v>
@@ -7091,7 +7091,7 @@
         <v>19</v>
       </c>
       <c r="G24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H24">
         <v>24</v>
@@ -7123,7 +7123,7 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H25">
         <v>72</v>
@@ -7155,7 +7155,7 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H26">
         <v>40</v>
@@ -7187,7 +7187,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H27">
         <v>52</v>
@@ -7219,7 +7219,7 @@
         <v>16</v>
       </c>
       <c r="G28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H28">
         <v>46</v>
@@ -7251,7 +7251,7 @@
         <v>19</v>
       </c>
       <c r="G29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H29">
         <v>61</v>
@@ -7283,7 +7283,7 @@
         <v>22</v>
       </c>
       <c r="G30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H30">
         <v>43</v>
@@ -7315,7 +7315,7 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H31">
         <v>47</v>
@@ -7347,7 +7347,7 @@
         <v>11</v>
       </c>
       <c r="G32">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H32">
         <v>84</v>
@@ -7379,7 +7379,7 @@
         <v>16</v>
       </c>
       <c r="G33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H33">
         <v>62</v>
@@ -7411,7 +7411,7 @@
         <v>19</v>
       </c>
       <c r="G34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H34">
         <v>41</v>
@@ -7443,7 +7443,7 @@
         <v>22</v>
       </c>
       <c r="G35">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H35">
         <v>55</v>
@@ -7475,7 +7475,7 @@
         <v>25</v>
       </c>
       <c r="G36">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H36">
         <v>52</v>
@@ -7507,7 +7507,7 @@
         <v>11</v>
       </c>
       <c r="G37">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H37">
         <v>91</v>
@@ -7539,7 +7539,7 @@
         <v>16</v>
       </c>
       <c r="G38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H38">
         <v>39</v>
@@ -7571,7 +7571,7 @@
         <v>19</v>
       </c>
       <c r="G39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H39">
         <v>100</v>
@@ -7603,7 +7603,7 @@
         <v>22</v>
       </c>
       <c r="G40">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H40">
         <v>56</v>
@@ -7635,7 +7635,7 @@
         <v>25</v>
       </c>
       <c r="G41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H41">
         <v>42</v>
@@ -7667,7 +7667,7 @@
         <v>11</v>
       </c>
       <c r="G42">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H42">
         <v>53</v>
@@ -7699,7 +7699,7 @@
         <v>16</v>
       </c>
       <c r="G43">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H43">
         <v>79</v>
@@ -7731,7 +7731,7 @@
         <v>19</v>
       </c>
       <c r="G44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H44">
         <v>60</v>
@@ -7763,7 +7763,7 @@
         <v>22</v>
       </c>
       <c r="G45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H45">
         <v>88</v>
@@ -7795,7 +7795,7 @@
         <v>25</v>
       </c>
       <c r="G46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H46">
         <v>70</v>
@@ -7827,7 +7827,7 @@
         <v>11</v>
       </c>
       <c r="G47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H47">
         <v>60</v>
@@ -7859,7 +7859,7 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H48">
         <v>10</v>
@@ -7891,7 +7891,7 @@
         <v>19</v>
       </c>
       <c r="G49">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H49">
         <v>56</v>
@@ -7923,7 +7923,7 @@
         <v>22</v>
       </c>
       <c r="G50">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H50">
         <v>47</v>
@@ -7955,7 +7955,7 @@
         <v>25</v>
       </c>
       <c r="G51">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H51">
         <v>80</v>
@@ -7987,7 +7987,7 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H52">
         <v>48</v>
@@ -8019,7 +8019,7 @@
         <v>16</v>
       </c>
       <c r="G53">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H53">
         <v>76</v>
@@ -8051,7 +8051,7 @@
         <v>19</v>
       </c>
       <c r="G54">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H54">
         <v>78</v>
@@ -8083,7 +8083,7 @@
         <v>22</v>
       </c>
       <c r="G55">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H55">
         <v>46</v>
@@ -8115,7 +8115,7 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H56">
         <v>85</v>
@@ -8147,7 +8147,7 @@
         <v>11</v>
       </c>
       <c r="G57">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H57">
         <v>69</v>
@@ -8179,7 +8179,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H58">
         <v>28</v>
@@ -8211,7 +8211,7 @@
         <v>19</v>
       </c>
       <c r="G59">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H59">
         <v>59</v>
@@ -8243,7 +8243,7 @@
         <v>22</v>
       </c>
       <c r="G60">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H60">
         <v>42</v>
@@ -8275,7 +8275,7 @@
         <v>25</v>
       </c>
       <c r="G61">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H61">
         <v>73</v>
@@ -8307,7 +8307,7 @@
         <v>11</v>
       </c>
       <c r="G62">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H62">
         <v>79</v>
@@ -8339,7 +8339,7 @@
         <v>16</v>
       </c>
       <c r="G63">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H63">
         <v>16</v>
@@ -8371,7 +8371,7 @@
         <v>19</v>
       </c>
       <c r="G64">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H64">
         <v>31</v>
@@ -8403,7 +8403,7 @@
         <v>22</v>
       </c>
       <c r="G65">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H65">
         <v>62</v>
@@ -8435,7 +8435,7 @@
         <v>25</v>
       </c>
       <c r="G66">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H66">
         <v>47</v>
@@ -8467,7 +8467,7 @@
         <v>11</v>
       </c>
       <c r="G67">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H67">
         <v>38</v>
@@ -8499,7 +8499,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H68">
         <v>78</v>
@@ -8531,7 +8531,7 @@
         <v>19</v>
       </c>
       <c r="G69">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H69">
         <v>80</v>
@@ -8563,7 +8563,7 @@
         <v>22</v>
       </c>
       <c r="G70">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H70">
         <v>46</v>
@@ -8595,7 +8595,7 @@
         <v>25</v>
       </c>
       <c r="G71">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H71">
         <v>53</v>
@@ -8627,7 +8627,7 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H72">
         <v>93</v>
@@ -8659,7 +8659,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H73">
         <v>35</v>
@@ -8691,7 +8691,7 @@
         <v>19</v>
       </c>
       <c r="G74">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H74">
         <v>62</v>
@@ -8723,7 +8723,7 @@
         <v>22</v>
       </c>
       <c r="G75">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H75">
         <v>41</v>
@@ -8755,7 +8755,7 @@
         <v>25</v>
       </c>
       <c r="G76">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H76">
         <v>72</v>
@@ -8787,7 +8787,7 @@
         <v>11</v>
       </c>
       <c r="G77">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H77">
         <v>11</v>
@@ -8819,7 +8819,7 @@
         <v>16</v>
       </c>
       <c r="G78">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H78">
         <v>81</v>
@@ -8851,7 +8851,7 @@
         <v>19</v>
       </c>
       <c r="G79">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H79">
         <v>78</v>
@@ -8883,7 +8883,7 @@
         <v>22</v>
       </c>
       <c r="G80">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H80">
         <v>72</v>
@@ -8915,7 +8915,7 @@
         <v>25</v>
       </c>
       <c r="G81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H81">
         <v>63</v>
@@ -8947,7 +8947,7 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H82">
         <v>62</v>
@@ -8979,7 +8979,7 @@
         <v>16</v>
       </c>
       <c r="G83">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H83">
         <v>35</v>
@@ -9011,7 +9011,7 @@
         <v>19</v>
       </c>
       <c r="G84">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H84">
         <v>45</v>
@@ -9043,7 +9043,7 @@
         <v>22</v>
       </c>
       <c r="G85">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H85">
         <v>39</v>
@@ -9075,7 +9075,7 @@
         <v>25</v>
       </c>
       <c r="G86">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H86">
         <v>45</v>
@@ -9107,7 +9107,7 @@
         <v>11</v>
       </c>
       <c r="G87">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H87">
         <v>97</v>
@@ -9139,7 +9139,7 @@
         <v>16</v>
       </c>
       <c r="G88">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H88">
         <v>81</v>
@@ -9171,7 +9171,7 @@
         <v>19</v>
       </c>
       <c r="G89">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H89">
         <v>56</v>
@@ -9203,7 +9203,7 @@
         <v>22</v>
       </c>
       <c r="G90">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H90">
         <v>89</v>
@@ -9235,7 +9235,7 @@
         <v>25</v>
       </c>
       <c r="G91">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H91">
         <v>67</v>
@@ -9267,7 +9267,7 @@
         <v>11</v>
       </c>
       <c r="G92">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H92">
         <v>84</v>
@@ -9299,7 +9299,7 @@
         <v>16</v>
       </c>
       <c r="G93">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H93">
         <v>53</v>
@@ -9331,7 +9331,7 @@
         <v>19</v>
       </c>
       <c r="G94">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H94">
         <v>41</v>
@@ -9363,7 +9363,7 @@
         <v>22</v>
       </c>
       <c r="G95">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H95">
         <v>62</v>
@@ -9395,7 +9395,7 @@
         <v>25</v>
       </c>
       <c r="G96">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H96">
         <v>79</v>
@@ -9427,7 +9427,7 @@
         <v>11</v>
       </c>
       <c r="G97">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H97">
         <v>29</v>
@@ -9459,7 +9459,7 @@
         <v>16</v>
       </c>
       <c r="G98">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H98">
         <v>93</v>
@@ -9491,7 +9491,7 @@
         <v>19</v>
       </c>
       <c r="G99">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H99">
         <v>63</v>
@@ -9523,7 +9523,7 @@
         <v>22</v>
       </c>
       <c r="G100">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H100">
         <v>68</v>
@@ -9555,7 +9555,7 @@
         <v>25</v>
       </c>
       <c r="G101">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H101">
         <v>70</v>
@@ -9587,7 +9587,7 @@
         <v>11</v>
       </c>
       <c r="G102">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H102">
         <v>67</v>
@@ -9619,7 +9619,7 @@
         <v>16</v>
       </c>
       <c r="G103">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H103">
         <v>61</v>
@@ -9651,7 +9651,7 @@
         <v>19</v>
       </c>
       <c r="G104">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H104">
         <v>64</v>
@@ -9683,7 +9683,7 @@
         <v>22</v>
       </c>
       <c r="G105">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H105">
         <v>19</v>
@@ -9715,7 +9715,7 @@
         <v>25</v>
       </c>
       <c r="G106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H106">
         <v>75</v>
@@ -9747,7 +9747,7 @@
         <v>11</v>
       </c>
       <c r="G107">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H107">
         <v>57</v>
@@ -9779,7 +9779,7 @@
         <v>16</v>
       </c>
       <c r="G108">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H108">
         <v>68</v>
@@ -9811,7 +9811,7 @@
         <v>19</v>
       </c>
       <c r="G109">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H109">
         <v>52</v>
@@ -9843,7 +9843,7 @@
         <v>22</v>
       </c>
       <c r="G110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H110">
         <v>43</v>
@@ -9875,7 +9875,7 @@
         <v>25</v>
       </c>
       <c r="G111">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H111">
         <v>60</v>
@@ -9907,7 +9907,7 @@
         <v>11</v>
       </c>
       <c r="G112">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H112">
         <v>82</v>
@@ -9939,7 +9939,7 @@
         <v>16</v>
       </c>
       <c r="G113">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -9971,7 +9971,7 @@
         <v>19</v>
       </c>
       <c r="G114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H114">
         <v>70</v>
@@ -10003,7 +10003,7 @@
         <v>22</v>
       </c>
       <c r="G115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H115">
         <v>56</v>
@@ -10035,7 +10035,7 @@
         <v>25</v>
       </c>
       <c r="G116">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H116">
         <v>73</v>
@@ -10067,7 +10067,7 @@
         <v>11</v>
       </c>
       <c r="G117">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H117">
         <v>70</v>
@@ -10099,7 +10099,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H118">
         <v>62</v>
@@ -10131,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="G119">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H119">
         <v>58</v>
@@ -10163,7 +10163,7 @@
         <v>22</v>
       </c>
       <c r="G120">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H120">
         <v>72</v>
@@ -10195,7 +10195,7 @@
         <v>25</v>
       </c>
       <c r="G121">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H121">
         <v>38</v>
@@ -10227,7 +10227,7 @@
         <v>11</v>
       </c>
       <c r="G122">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H122">
         <v>93</v>
@@ -10259,7 +10259,7 @@
         <v>16</v>
       </c>
       <c r="G123">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H123">
         <v>49</v>
@@ -10291,7 +10291,7 @@
         <v>19</v>
       </c>
       <c r="G124">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H124">
         <v>59</v>
@@ -10323,7 +10323,7 @@
         <v>22</v>
       </c>
       <c r="G125">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H125">
         <v>59</v>
@@ -10355,7 +10355,7 @@
         <v>25</v>
       </c>
       <c r="G126">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H126">
         <v>93</v>
@@ -10387,7 +10387,7 @@
         <v>11</v>
       </c>
       <c r="G127">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H127">
         <v>52</v>
@@ -10419,7 +10419,7 @@
         <v>16</v>
       </c>
       <c r="G128">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H128">
         <v>63</v>
@@ -10451,7 +10451,7 @@
         <v>19</v>
       </c>
       <c r="G129">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H129">
         <v>77</v>
@@ -10483,7 +10483,7 @@
         <v>22</v>
       </c>
       <c r="G130">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H130">
         <v>100</v>
@@ -10515,7 +10515,7 @@
         <v>25</v>
       </c>
       <c r="G131">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H131">
         <v>31</v>
@@ -10547,7 +10547,7 @@
         <v>11</v>
       </c>
       <c r="G132">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H132">
         <v>64</v>
@@ -10579,7 +10579,7 @@
         <v>16</v>
       </c>
       <c r="G133">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H133">
         <v>48</v>
@@ -10611,7 +10611,7 @@
         <v>19</v>
       </c>
       <c r="G134">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H134">
         <v>43</v>
@@ -10643,7 +10643,7 @@
         <v>22</v>
       </c>
       <c r="G135">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H135">
         <v>35</v>
@@ -10675,7 +10675,7 @@
         <v>25</v>
       </c>
       <c r="G136">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H136">
         <v>60</v>
@@ -10707,7 +10707,7 @@
         <v>11</v>
       </c>
       <c r="G137">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H137">
         <v>51</v>
@@ -10739,7 +10739,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H138">
         <v>65</v>
@@ -10771,7 +10771,7 @@
         <v>19</v>
       </c>
       <c r="G139">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H139">
         <v>41</v>
@@ -10803,7 +10803,7 @@
         <v>22</v>
       </c>
       <c r="G140">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H140">
         <v>84</v>
@@ -10835,7 +10835,7 @@
         <v>25</v>
       </c>
       <c r="G141">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H141">
         <v>57</v>
@@ -10867,7 +10867,7 @@
         <v>11</v>
       </c>
       <c r="G142">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H142">
         <v>54</v>
@@ -10899,7 +10899,7 @@
         <v>16</v>
       </c>
       <c r="G143">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H143">
         <v>65</v>
@@ -10931,7 +10931,7 @@
         <v>19</v>
       </c>
       <c r="G144">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -10963,7 +10963,7 @@
         <v>22</v>
       </c>
       <c r="G145">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H145">
         <v>91</v>
@@ -10995,7 +10995,7 @@
         <v>25</v>
       </c>
       <c r="G146">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H146">
         <v>82</v>
@@ -11027,7 +11027,7 @@
         <v>11</v>
       </c>
       <c r="G147">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H147">
         <v>85</v>
@@ -11059,7 +11059,7 @@
         <v>16</v>
       </c>
       <c r="G148">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H148">
         <v>41</v>
@@ -11091,7 +11091,7 @@
         <v>19</v>
       </c>
       <c r="G149">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H149">
         <v>68</v>
@@ -11123,7 +11123,7 @@
         <v>22</v>
       </c>
       <c r="G150">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H150">
         <v>44</v>
@@ -11155,7 +11155,7 @@
         <v>25</v>
       </c>
       <c r="G151">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H151">
         <v>35</v>
@@ -11187,7 +11187,7 @@
         <v>11</v>
       </c>
       <c r="G152">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H152">
         <v>56</v>
@@ -11219,7 +11219,7 @@
         <v>16</v>
       </c>
       <c r="G153">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H153">
         <v>87</v>
@@ -11251,7 +11251,7 @@
         <v>19</v>
       </c>
       <c r="G154">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H154">
         <v>77</v>
@@ -11283,7 +11283,7 @@
         <v>22</v>
       </c>
       <c r="G155">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H155">
         <v>52</v>
@@ -11315,7 +11315,7 @@
         <v>25</v>
       </c>
       <c r="G156">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H156">
         <v>43</v>
@@ -11347,7 +11347,7 @@
         <v>11</v>
       </c>
       <c r="G157">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H157">
         <v>52</v>
@@ -11379,7 +11379,7 @@
         <v>16</v>
       </c>
       <c r="G158">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H158">
         <v>20</v>
@@ -11411,7 +11411,7 @@
         <v>19</v>
       </c>
       <c r="G159">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H159">
         <v>21</v>
@@ -11443,7 +11443,7 @@
         <v>22</v>
       </c>
       <c r="G160">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H160">
         <v>90</v>
@@ -11475,7 +11475,7 @@
         <v>25</v>
       </c>
       <c r="G161">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H161">
         <v>50</v>
@@ -11507,7 +11507,7 @@
         <v>11</v>
       </c>
       <c r="G162">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H162">
         <v>59</v>
@@ -11539,7 +11539,7 @@
         <v>16</v>
       </c>
       <c r="G163">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H163">
         <v>69</v>
@@ -11571,7 +11571,7 @@
         <v>19</v>
       </c>
       <c r="G164">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H164">
         <v>60</v>
@@ -11603,7 +11603,7 @@
         <v>22</v>
       </c>
       <c r="G165">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H165">
         <v>78</v>
@@ -11635,7 +11635,7 @@
         <v>25</v>
       </c>
       <c r="G166">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H166">
         <v>76</v>
@@ -11667,7 +11667,7 @@
         <v>11</v>
       </c>
       <c r="G167">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H167">
         <v>30</v>
@@ -11699,7 +11699,7 @@
         <v>16</v>
       </c>
       <c r="G168">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H168">
         <v>45</v>
@@ -11731,7 +11731,7 @@
         <v>19</v>
       </c>
       <c r="G169">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H169">
         <v>60</v>
@@ -11763,7 +11763,7 @@
         <v>22</v>
       </c>
       <c r="G170">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H170">
         <v>34</v>
@@ -11795,7 +11795,7 @@
         <v>25</v>
       </c>
       <c r="G171">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H171">
         <v>54</v>
@@ -11827,7 +11827,7 @@
         <v>11</v>
       </c>
       <c r="G172">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H172">
         <v>84</v>
@@ -11859,7 +11859,7 @@
         <v>16</v>
       </c>
       <c r="G173">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H173">
         <v>65</v>
@@ -11891,7 +11891,7 @@
         <v>19</v>
       </c>
       <c r="G174">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H174">
         <v>86</v>
@@ -11923,7 +11923,7 @@
         <v>22</v>
       </c>
       <c r="G175">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H175">
         <v>45</v>
@@ -11955,7 +11955,7 @@
         <v>25</v>
       </c>
       <c r="G176">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H176">
         <v>34</v>
@@ -11987,7 +11987,7 @@
         <v>11</v>
       </c>
       <c r="G177">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H177">
         <v>69</v>
@@ -12019,7 +12019,7 @@
         <v>16</v>
       </c>
       <c r="G178">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H178">
         <v>69</v>
@@ -12051,7 +12051,7 @@
         <v>19</v>
       </c>
       <c r="G179">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H179">
         <v>100</v>
@@ -12083,7 +12083,7 @@
         <v>22</v>
       </c>
       <c r="G180">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H180">
         <v>51</v>
@@ -12115,7 +12115,7 @@
         <v>25</v>
       </c>
       <c r="G181">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H181">
         <v>64</v>
@@ -12147,7 +12147,7 @@
         <v>11</v>
       </c>
       <c r="G182">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H182">
         <v>98</v>
@@ -12179,7 +12179,7 @@
         <v>16</v>
       </c>
       <c r="G183">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H183">
         <v>76</v>
@@ -12211,7 +12211,7 @@
         <v>19</v>
       </c>
       <c r="G184">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H184">
         <v>83</v>
@@ -12243,7 +12243,7 @@
         <v>22</v>
       </c>
       <c r="G185">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H185">
         <v>47</v>
@@ -12275,7 +12275,7 @@
         <v>25</v>
       </c>
       <c r="G186">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H186">
         <v>37</v>
@@ -12307,7 +12307,7 @@
         <v>11</v>
       </c>
       <c r="G187">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H187">
         <v>64</v>
@@ -12339,7 +12339,7 @@
         <v>16</v>
       </c>
       <c r="G188">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H188">
         <v>41</v>
@@ -12371,7 +12371,7 @@
         <v>19</v>
       </c>
       <c r="G189">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H189">
         <v>61</v>
@@ -12403,7 +12403,7 @@
         <v>22</v>
       </c>
       <c r="G190">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H190">
         <v>68</v>
@@ -12435,7 +12435,7 @@
         <v>25</v>
       </c>
       <c r="G191">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H191">
         <v>87</v>
@@ -12467,7 +12467,7 @@
         <v>11</v>
       </c>
       <c r="G192">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H192">
         <v>53</v>
@@ -12499,7 +12499,7 @@
         <v>16</v>
       </c>
       <c r="G193">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H193">
         <v>50</v>
@@ -12531,7 +12531,7 @@
         <v>19</v>
       </c>
       <c r="G194">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H194">
         <v>51</v>
@@ -12563,7 +12563,7 @@
         <v>22</v>
       </c>
       <c r="G195">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H195">
         <v>65</v>
@@ -12595,7 +12595,7 @@
         <v>25</v>
       </c>
       <c r="G196">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H196">
         <v>55</v>
@@ -12627,7 +12627,7 @@
         <v>11</v>
       </c>
       <c r="G197">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H197">
         <v>86</v>
@@ -12659,7 +12659,7 @@
         <v>16</v>
       </c>
       <c r="G198">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H198">
         <v>15</v>
@@ -12691,7 +12691,7 @@
         <v>19</v>
       </c>
       <c r="G199">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H199">
         <v>72</v>
@@ -12723,7 +12723,7 @@
         <v>22</v>
       </c>
       <c r="G200">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H200">
         <v>43</v>
@@ -12755,7 +12755,7 @@
         <v>25</v>
       </c>
       <c r="G201">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H201">
         <v>58</v>
@@ -12787,7 +12787,7 @@
         <v>11</v>
       </c>
       <c r="G202">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H202">
         <v>43</v>
@@ -12819,7 +12819,7 @@
         <v>16</v>
       </c>
       <c r="G203">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H203">
         <v>93</v>
@@ -12851,7 +12851,7 @@
         <v>19</v>
       </c>
       <c r="G204">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H204">
         <v>69</v>
@@ -12883,7 +12883,7 @@
         <v>22</v>
       </c>
       <c r="G205">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H205">
         <v>5</v>
@@ -12915,7 +12915,7 @@
         <v>25</v>
       </c>
       <c r="G206">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H206">
         <v>67</v>
@@ -12947,7 +12947,7 @@
         <v>11</v>
       </c>
       <c r="G207">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H207">
         <v>20</v>
@@ -12979,7 +12979,7 @@
         <v>16</v>
       </c>
       <c r="G208">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H208">
         <v>56</v>
@@ -13011,7 +13011,7 @@
         <v>19</v>
       </c>
       <c r="G209">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H209">
         <v>67</v>
@@ -13043,7 +13043,7 @@
         <v>22</v>
       </c>
       <c r="G210">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H210">
         <v>62</v>
@@ -13075,7 +13075,7 @@
         <v>25</v>
       </c>
       <c r="G211">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H211">
         <v>10</v>
@@ -13107,7 +13107,7 @@
         <v>11</v>
       </c>
       <c r="G212">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H212">
         <v>100</v>
@@ -13139,7 +13139,7 @@
         <v>16</v>
       </c>
       <c r="G213">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H213">
         <v>59</v>
@@ -13171,7 +13171,7 @@
         <v>19</v>
       </c>
       <c r="G214">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H214">
         <v>79</v>
@@ -13203,7 +13203,7 @@
         <v>22</v>
       </c>
       <c r="G215">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H215">
         <v>88</v>
@@ -13235,7 +13235,7 @@
         <v>25</v>
       </c>
       <c r="G216">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H216">
         <v>76</v>
@@ -13267,7 +13267,7 @@
         <v>11</v>
       </c>
       <c r="G217">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H217">
         <v>81</v>
@@ -13299,7 +13299,7 @@
         <v>16</v>
       </c>
       <c r="G218">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H218">
         <v>38</v>
@@ -13331,7 +13331,7 @@
         <v>19</v>
       </c>
       <c r="G219">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H219">
         <v>80</v>
@@ -13363,7 +13363,7 @@
         <v>22</v>
       </c>
       <c r="G220">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H220">
         <v>54</v>
@@ -13395,7 +13395,7 @@
         <v>25</v>
       </c>
       <c r="G221">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H221">
         <v>58</v>
@@ -13427,7 +13427,7 @@
         <v>11</v>
       </c>
       <c r="G222">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H222">
         <v>35</v>
@@ -13459,7 +13459,7 @@
         <v>16</v>
       </c>
       <c r="G223">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H223">
         <v>51</v>
@@ -13491,7 +13491,7 @@
         <v>19</v>
       </c>
       <c r="G224">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H224">
         <v>67</v>
@@ -13523,7 +13523,7 @@
         <v>22</v>
       </c>
       <c r="G225">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H225">
         <v>54</v>
@@ -13555,7 +13555,7 @@
         <v>25</v>
       </c>
       <c r="G226">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H226">
         <v>67</v>
@@ -13587,7 +13587,7 @@
         <v>11</v>
       </c>
       <c r="G227">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H227">
         <v>45</v>
@@ -13619,7 +13619,7 @@
         <v>16</v>
       </c>
       <c r="G228">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H228">
         <v>57</v>
@@ -13651,7 +13651,7 @@
         <v>19</v>
       </c>
       <c r="G229">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H229">
         <v>60</v>
@@ -13683,7 +13683,7 @@
         <v>22</v>
       </c>
       <c r="G230">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H230">
         <v>74</v>
@@ -13715,7 +13715,7 @@
         <v>25</v>
       </c>
       <c r="G231">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H231">
         <v>69</v>
@@ -13747,7 +13747,7 @@
         <v>11</v>
       </c>
       <c r="G232">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H232">
         <v>67</v>
@@ -13779,7 +13779,7 @@
         <v>16</v>
       </c>
       <c r="G233">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H233">
         <v>73</v>
@@ -13811,7 +13811,7 @@
         <v>19</v>
       </c>
       <c r="G234">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H234">
         <v>46</v>
@@ -13843,7 +13843,7 @@
         <v>22</v>
       </c>
       <c r="G235">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H235">
         <v>80</v>
@@ -13875,7 +13875,7 @@
         <v>25</v>
       </c>
       <c r="G236">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H236">
         <v>57</v>
@@ -13907,7 +13907,7 @@
         <v>11</v>
       </c>
       <c r="G237">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H237">
         <v>61</v>
@@ -13939,7 +13939,7 @@
         <v>16</v>
       </c>
       <c r="G238">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H238">
         <v>66</v>
@@ -13971,7 +13971,7 @@
         <v>19</v>
       </c>
       <c r="G239">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H239">
         <v>48</v>
@@ -14003,7 +14003,7 @@
         <v>22</v>
       </c>
       <c r="G240">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H240">
         <v>60</v>
@@ -14035,7 +14035,7 @@
         <v>25</v>
       </c>
       <c r="G241">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H241">
         <v>83</v>
@@ -14067,7 +14067,7 @@
         <v>11</v>
       </c>
       <c r="G242">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H242">
         <v>63</v>
@@ -14099,7 +14099,7 @@
         <v>16</v>
       </c>
       <c r="G243">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H243">
         <v>38</v>
@@ -14131,7 +14131,7 @@
         <v>19</v>
       </c>
       <c r="G244">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H244">
         <v>85</v>
@@ -14163,7 +14163,7 @@
         <v>22</v>
       </c>
       <c r="G245">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H245">
         <v>53</v>
@@ -14195,7 +14195,7 @@
         <v>25</v>
       </c>
       <c r="G246">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H246">
         <v>16</v>
@@ -14227,7 +14227,7 @@
         <v>11</v>
       </c>
       <c r="G247">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H247">
         <v>13</v>
@@ -14259,7 +14259,7 @@
         <v>16</v>
       </c>
       <c r="G248">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H248">
         <v>63</v>
@@ -14291,7 +14291,7 @@
         <v>19</v>
       </c>
       <c r="G249">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H249">
         <v>70</v>
@@ -14323,7 +14323,7 @@
         <v>22</v>
       </c>
       <c r="G250">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H250">
         <v>85</v>
@@ -14355,7 +14355,7 @@
         <v>25</v>
       </c>
       <c r="G251">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H251">
         <v>65</v>
@@ -14387,7 +14387,7 @@
         <v>11</v>
       </c>
       <c r="G252">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H252">
         <v>57</v>
@@ -14419,7 +14419,7 @@
         <v>16</v>
       </c>
       <c r="G253">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H253">
         <v>33</v>
@@ -14451,7 +14451,7 @@
         <v>19</v>
       </c>
       <c r="G254">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H254">
         <v>64</v>
@@ -14483,7 +14483,7 @@
         <v>22</v>
       </c>
       <c r="G255">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H255">
         <v>79</v>
@@ -14515,7 +14515,7 @@
         <v>25</v>
       </c>
       <c r="G256">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H256">
         <v>43</v>
@@ -14547,7 +14547,7 @@
         <v>11</v>
       </c>
       <c r="G257">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H257">
         <v>68</v>
@@ -14579,7 +14579,7 @@
         <v>16</v>
       </c>
       <c r="G258">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H258">
         <v>24</v>
@@ -14611,7 +14611,7 @@
         <v>19</v>
       </c>
       <c r="G259">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H259">
         <v>94</v>
@@ -14643,7 +14643,7 @@
         <v>22</v>
       </c>
       <c r="G260">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H260">
         <v>46</v>
@@ -14675,7 +14675,7 @@
         <v>25</v>
       </c>
       <c r="G261">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H261">
         <v>42</v>
@@ -14707,7 +14707,7 @@
         <v>11</v>
       </c>
       <c r="G262">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H262">
         <v>42</v>
@@ -14739,7 +14739,7 @@
         <v>16</v>
       </c>
       <c r="G263">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H263">
         <v>21</v>
@@ -14771,7 +14771,7 @@
         <v>19</v>
       </c>
       <c r="G264">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H264">
         <v>38</v>
@@ -14803,7 +14803,7 @@
         <v>22</v>
       </c>
       <c r="G265">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H265">
         <v>55</v>
@@ -14835,7 +14835,7 @@
         <v>25</v>
       </c>
       <c r="G266">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H266">
         <v>95</v>
@@ -14867,7 +14867,7 @@
         <v>11</v>
       </c>
       <c r="G267">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H267">
         <v>53</v>
@@ -14899,7 +14899,7 @@
         <v>16</v>
       </c>
       <c r="G268">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H268">
         <v>49</v>
@@ -14931,7 +14931,7 @@
         <v>19</v>
       </c>
       <c r="G269">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H269">
         <v>39</v>
@@ -14963,7 +14963,7 @@
         <v>22</v>
       </c>
       <c r="G270">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H270">
         <v>67</v>
@@ -14995,7 +14995,7 @@
         <v>25</v>
       </c>
       <c r="G271">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H271">
         <v>56</v>
@@ -15027,7 +15027,7 @@
         <v>11</v>
       </c>
       <c r="G272">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H272">
         <v>66</v>
@@ -15059,7 +15059,7 @@
         <v>16</v>
       </c>
       <c r="G273">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H273">
         <v>100</v>
@@ -15091,7 +15091,7 @@
         <v>19</v>
       </c>
       <c r="G274">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H274">
         <v>48</v>
@@ -15123,7 +15123,7 @@
         <v>22</v>
       </c>
       <c r="G275">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H275">
         <v>17</v>
@@ -15155,7 +15155,7 @@
         <v>25</v>
       </c>
       <c r="G276">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H276">
         <v>87</v>
@@ -15187,7 +15187,7 @@
         <v>11</v>
       </c>
       <c r="G277">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H277">
         <v>82</v>
@@ -15219,7 +15219,7 @@
         <v>16</v>
       </c>
       <c r="G278">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H278">
         <v>68</v>
@@ -15251,7 +15251,7 @@
         <v>19</v>
       </c>
       <c r="G279">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H279">
         <v>60</v>
@@ -15283,7 +15283,7 @@
         <v>22</v>
       </c>
       <c r="G280">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H280">
         <v>46</v>
@@ -15315,7 +15315,7 @@
         <v>25</v>
       </c>
       <c r="G281">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H281">
         <v>43</v>
@@ -15347,7 +15347,7 @@
         <v>11</v>
       </c>
       <c r="G282">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H282">
         <v>79</v>
@@ -15379,7 +15379,7 @@
         <v>16</v>
       </c>
       <c r="G283">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H283">
         <v>35</v>
@@ -15411,7 +15411,7 @@
         <v>19</v>
       </c>
       <c r="G284">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H284">
         <v>55</v>
@@ -15443,7 +15443,7 @@
         <v>22</v>
       </c>
       <c r="G285">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H285">
         <v>35</v>
@@ -15475,7 +15475,7 @@
         <v>25</v>
       </c>
       <c r="G286">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H286">
         <v>29</v>
@@ -15507,7 +15507,7 @@
         <v>11</v>
       </c>
       <c r="G287">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H287">
         <v>52</v>
@@ -15539,7 +15539,7 @@
         <v>16</v>
       </c>
       <c r="G288">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H288">
         <v>43</v>
@@ -15571,7 +15571,7 @@
         <v>19</v>
       </c>
       <c r="G289">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H289">
         <v>34</v>
@@ -15603,7 +15603,7 @@
         <v>22</v>
       </c>
       <c r="G290">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H290">
         <v>72</v>
@@ -15635,7 +15635,7 @@
         <v>25</v>
       </c>
       <c r="G291">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H291">
         <v>33</v>
@@ -15667,7 +15667,7 @@
         <v>11</v>
       </c>
       <c r="G292">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H292">
         <v>44</v>
@@ -15699,7 +15699,7 @@
         <v>16</v>
       </c>
       <c r="G293">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H293">
         <v>96</v>
@@ -15731,7 +15731,7 @@
         <v>19</v>
       </c>
       <c r="G294">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H294">
         <v>64</v>
@@ -15763,7 +15763,7 @@
         <v>22</v>
       </c>
       <c r="G295">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H295">
         <v>55</v>
@@ -15795,7 +15795,7 @@
         <v>25</v>
       </c>
       <c r="G296">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H296">
         <v>67</v>
@@ -15827,7 +15827,7 @@
         <v>11</v>
       </c>
       <c r="G297">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H297">
         <v>89</v>
@@ -15859,7 +15859,7 @@
         <v>16</v>
       </c>
       <c r="G298">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H298">
         <v>61</v>
@@ -15891,7 +15891,7 @@
         <v>19</v>
       </c>
       <c r="G299">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H299">
         <v>48</v>
@@ -15923,7 +15923,7 @@
         <v>22</v>
       </c>
       <c r="G300">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H300">
         <v>69</v>
@@ -15955,7 +15955,7 @@
         <v>25</v>
       </c>
       <c r="G301">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H301">
         <v>54</v>
@@ -15987,7 +15987,7 @@
         <v>11</v>
       </c>
       <c r="G302">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H302">
         <v>82</v>
@@ -16019,7 +16019,7 @@
         <v>16</v>
       </c>
       <c r="G303">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H303">
         <v>67</v>
@@ -16051,7 +16051,7 @@
         <v>19</v>
       </c>
       <c r="G304">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H304">
         <v>69</v>
@@ -16083,7 +16083,7 @@
         <v>22</v>
       </c>
       <c r="G305">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H305">
         <v>46</v>
@@ -16115,7 +16115,7 @@
         <v>25</v>
       </c>
       <c r="G306">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H306">
         <v>69</v>
@@ -16147,7 +16147,7 @@
         <v>11</v>
       </c>
       <c r="G307">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H307">
         <v>36</v>
@@ -16179,7 +16179,7 @@
         <v>16</v>
       </c>
       <c r="G308">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H308">
         <v>32</v>
@@ -16211,7 +16211,7 @@
         <v>19</v>
       </c>
       <c r="G309">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H309">
         <v>65</v>
@@ -16243,7 +16243,7 @@
         <v>22</v>
       </c>
       <c r="G310">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H310">
         <v>86</v>
@@ -16275,7 +16275,7 @@
         <v>25</v>
       </c>
       <c r="G311">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H311">
         <v>83</v>
@@ -16307,7 +16307,7 @@
         <v>11</v>
       </c>
       <c r="G312">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H312">
         <v>46</v>
@@ -16339,7 +16339,7 @@
         <v>16</v>
       </c>
       <c r="G313">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H313">
         <v>71</v>
@@ -16371,7 +16371,7 @@
         <v>19</v>
       </c>
       <c r="G314">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H314">
         <v>36</v>
@@ -16403,7 +16403,7 @@
         <v>22</v>
       </c>
       <c r="G315">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H315">
         <v>65</v>
@@ -16435,7 +16435,7 @@
         <v>25</v>
       </c>
       <c r="G316">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H316">
         <v>30</v>
@@ -16467,7 +16467,7 @@
         <v>11</v>
       </c>
       <c r="G317">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H317">
         <v>70</v>
@@ -16499,7 +16499,7 @@
         <v>16</v>
       </c>
       <c r="G318">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H318">
         <v>55</v>
@@ -16531,7 +16531,7 @@
         <v>19</v>
       </c>
       <c r="G319">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H319">
         <v>66</v>
@@ -16563,7 +16563,7 @@
         <v>22</v>
       </c>
       <c r="G320">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H320">
         <v>70</v>
@@ -16595,7 +16595,7 @@
         <v>25</v>
       </c>
       <c r="G321">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H321">
         <v>53</v>
@@ -16627,7 +16627,7 @@
         <v>11</v>
       </c>
       <c r="G322">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H322">
         <v>86</v>
@@ -16659,7 +16659,7 @@
         <v>16</v>
       </c>
       <c r="G323">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H323">
         <v>57</v>
@@ -16691,7 +16691,7 @@
         <v>19</v>
       </c>
       <c r="G324">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H324">
         <v>87</v>
@@ -16723,7 +16723,7 @@
         <v>22</v>
       </c>
       <c r="G325">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H325">
         <v>44</v>
@@ -16755,7 +16755,7 @@
         <v>25</v>
       </c>
       <c r="G326">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H326">
         <v>70</v>
@@ -16787,7 +16787,7 @@
         <v>11</v>
       </c>
       <c r="G327">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H327">
         <v>52</v>
@@ -16819,7 +16819,7 @@
         <v>16</v>
       </c>
       <c r="G328">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H328">
         <v>53</v>
@@ -16851,7 +16851,7 @@
         <v>19</v>
       </c>
       <c r="G329">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H329">
         <v>97</v>
@@ -16883,7 +16883,7 @@
         <v>22</v>
       </c>
       <c r="G330">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H330">
         <v>33</v>
@@ -16915,7 +16915,7 @@
         <v>25</v>
       </c>
       <c r="G331">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H331">
         <v>100</v>
@@ -16947,7 +16947,7 @@
         <v>11</v>
       </c>
       <c r="G332">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H332">
         <v>48</v>
@@ -16979,7 +16979,7 @@
         <v>16</v>
       </c>
       <c r="G333">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H333">
         <v>13</v>
@@ -17011,7 +17011,7 @@
         <v>19</v>
       </c>
       <c r="G334">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H334">
         <v>62</v>
@@ -17043,7 +17043,7 @@
         <v>22</v>
       </c>
       <c r="G335">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H335">
         <v>64</v>
@@ -17075,7 +17075,7 @@
         <v>25</v>
       </c>
       <c r="G336">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H336">
         <v>77</v>
@@ -17107,7 +17107,7 @@
         <v>11</v>
       </c>
       <c r="G337">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H337">
         <v>70</v>
@@ -17139,7 +17139,7 @@
         <v>16</v>
       </c>
       <c r="G338">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H338">
         <v>76</v>
@@ -17171,7 +17171,7 @@
         <v>19</v>
       </c>
       <c r="G339">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H339">
         <v>63</v>
@@ -17203,7 +17203,7 @@
         <v>22</v>
       </c>
       <c r="G340">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H340">
         <v>86</v>
@@ -17235,7 +17235,7 @@
         <v>25</v>
       </c>
       <c r="G341">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H341">
         <v>78</v>
@@ -17267,7 +17267,7 @@
         <v>11</v>
       </c>
       <c r="G342">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H342">
         <v>56</v>
@@ -17299,7 +17299,7 @@
         <v>16</v>
       </c>
       <c r="G343">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H343">
         <v>31</v>
@@ -17331,7 +17331,7 @@
         <v>19</v>
       </c>
       <c r="G344">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H344">
         <v>81</v>
@@ -17363,7 +17363,7 @@
         <v>22</v>
       </c>
       <c r="G345">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H345">
         <v>75</v>
@@ -17395,7 +17395,7 @@
         <v>25</v>
       </c>
       <c r="G346">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H346">
         <v>58</v>
@@ -17427,7 +17427,7 @@
         <v>11</v>
       </c>
       <c r="G347">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H347">
         <v>73</v>
@@ -17459,7 +17459,7 @@
         <v>16</v>
       </c>
       <c r="G348">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H348">
         <v>79</v>
@@ -17491,7 +17491,7 @@
         <v>19</v>
       </c>
       <c r="G349">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H349">
         <v>32</v>
@@ -17523,7 +17523,7 @@
         <v>22</v>
       </c>
       <c r="G350">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H350">
         <v>72</v>
@@ -17555,7 +17555,7 @@
         <v>25</v>
       </c>
       <c r="G351">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H351">
         <v>44</v>
@@ -17587,7 +17587,7 @@
         <v>11</v>
       </c>
       <c r="G352">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H352">
         <v>53</v>
@@ -17619,7 +17619,7 @@
         <v>16</v>
       </c>
       <c r="G353">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H353">
         <v>71</v>
@@ -17651,7 +17651,7 @@
         <v>19</v>
       </c>
       <c r="G354">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H354">
         <v>67</v>
@@ -17683,7 +17683,7 @@
         <v>22</v>
       </c>
       <c r="G355">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H355">
         <v>70</v>
@@ -17715,7 +17715,7 @@
         <v>25</v>
       </c>
       <c r="G356">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H356">
         <v>100</v>
@@ -17747,7 +17747,7 @@
         <v>11</v>
       </c>
       <c r="G357">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H357">
         <v>44</v>
@@ -17779,7 +17779,7 @@
         <v>16</v>
       </c>
       <c r="G358">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H358">
         <v>76</v>
@@ -17811,7 +17811,7 @@
         <v>19</v>
       </c>
       <c r="G359">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H359">
         <v>61</v>
@@ -17843,7 +17843,7 @@
         <v>22</v>
       </c>
       <c r="G360">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H360">
         <v>53</v>
@@ -17875,7 +17875,7 @@
         <v>25</v>
       </c>
       <c r="G361">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H361">
         <v>70</v>
@@ -17907,7 +17907,7 @@
         <v>11</v>
       </c>
       <c r="G362">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H362">
         <v>84</v>
@@ -17939,7 +17939,7 @@
         <v>16</v>
       </c>
       <c r="G363">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H363">
         <v>32</v>
@@ -17971,7 +17971,7 @@
         <v>19</v>
       </c>
       <c r="G364">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H364">
         <v>26</v>
@@ -18003,7 +18003,7 @@
         <v>22</v>
       </c>
       <c r="G365">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H365">
         <v>51</v>
@@ -18035,7 +18035,7 @@
         <v>25</v>
       </c>
       <c r="G366">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H366">
         <v>91</v>
@@ -18067,7 +18067,7 @@
         <v>11</v>
       </c>
       <c r="G367">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H367">
         <v>52</v>
@@ -18099,7 +18099,7 @@
         <v>16</v>
       </c>
       <c r="G368">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H368">
         <v>48</v>
@@ -18131,7 +18131,7 @@
         <v>19</v>
       </c>
       <c r="G369">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H369">
         <v>53</v>
@@ -18163,7 +18163,7 @@
         <v>22</v>
       </c>
       <c r="G370">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H370">
         <v>83</v>
@@ -18195,7 +18195,7 @@
         <v>25</v>
       </c>
       <c r="G371">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H371">
         <v>86</v>
@@ -18227,7 +18227,7 @@
         <v>11</v>
       </c>
       <c r="G372">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H372">
         <v>56</v>
@@ -18259,7 +18259,7 @@
         <v>16</v>
       </c>
       <c r="G373">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H373">
         <v>58</v>
@@ -18291,7 +18291,7 @@
         <v>19</v>
       </c>
       <c r="G374">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H374">
         <v>55</v>
@@ -18323,7 +18323,7 @@
         <v>22</v>
       </c>
       <c r="G375">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H375">
         <v>34</v>
@@ -18355,7 +18355,7 @@
         <v>25</v>
       </c>
       <c r="G376">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H376">
         <v>100</v>
@@ -18387,7 +18387,7 @@
         <v>11</v>
       </c>
       <c r="G377">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H377">
         <v>50</v>
@@ -18419,7 +18419,7 @@
         <v>16</v>
       </c>
       <c r="G378">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H378">
         <v>62</v>
@@ -18451,7 +18451,7 @@
         <v>19</v>
       </c>
       <c r="G379">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H379">
         <v>67</v>
@@ -18483,7 +18483,7 @@
         <v>22</v>
       </c>
       <c r="G380">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H380">
         <v>91</v>
@@ -18515,7 +18515,7 @@
         <v>25</v>
       </c>
       <c r="G381">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H381">
         <v>50</v>
@@ -18547,7 +18547,7 @@
         <v>11</v>
       </c>
       <c r="G382">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H382">
         <v>67</v>
@@ -18579,7 +18579,7 @@
         <v>16</v>
       </c>
       <c r="G383">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H383">
         <v>65</v>
@@ -18611,7 +18611,7 @@
         <v>19</v>
       </c>
       <c r="G384">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H384">
         <v>83</v>
@@ -18643,7 +18643,7 @@
         <v>22</v>
       </c>
       <c r="G385">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H385">
         <v>51</v>
@@ -18675,7 +18675,7 @@
         <v>25</v>
       </c>
       <c r="G386">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H386">
         <v>57</v>
@@ -18707,7 +18707,7 @@
         <v>11</v>
       </c>
       <c r="G387">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H387">
         <v>85</v>
@@ -18739,7 +18739,7 @@
         <v>16</v>
       </c>
       <c r="G388">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H388">
         <v>69</v>
@@ -18771,7 +18771,7 @@
         <v>19</v>
       </c>
       <c r="G389">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H389">
         <v>52</v>
@@ -18803,7 +18803,7 @@
         <v>22</v>
       </c>
       <c r="G390">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H390">
         <v>58</v>
@@ -18835,7 +18835,7 @@
         <v>25</v>
       </c>
       <c r="G391">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H391">
         <v>70</v>
@@ -18867,7 +18867,7 @@
         <v>11</v>
       </c>
       <c r="G392">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H392">
         <v>54</v>
@@ -18899,7 +18899,7 @@
         <v>16</v>
       </c>
       <c r="G393">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H393">
         <v>52</v>
@@ -18931,7 +18931,7 @@
         <v>19</v>
       </c>
       <c r="G394">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H394">
         <v>47</v>
@@ -18963,7 +18963,7 @@
         <v>22</v>
       </c>
       <c r="G395">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H395">
         <v>88</v>
@@ -18995,7 +18995,7 @@
         <v>25</v>
       </c>
       <c r="G396">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H396">
         <v>34</v>
@@ -19027,7 +19027,7 @@
         <v>11</v>
       </c>
       <c r="G397">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H397">
         <v>44</v>
@@ -19059,7 +19059,7 @@
         <v>16</v>
       </c>
       <c r="G398">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H398">
         <v>77</v>
@@ -19091,7 +19091,7 @@
         <v>19</v>
       </c>
       <c r="G399">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H399">
         <v>68</v>
@@ -19123,7 +19123,7 @@
         <v>22</v>
       </c>
       <c r="G400">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H400">
         <v>47</v>
@@ -19155,7 +19155,7 @@
         <v>25</v>
       </c>
       <c r="G401">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H401">
         <v>55</v>
@@ -19187,7 +19187,7 @@
         <v>11</v>
       </c>
       <c r="G402">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H402">
         <v>75</v>
@@ -19219,7 +19219,7 @@
         <v>16</v>
       </c>
       <c r="G403">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H403">
         <v>66</v>
@@ -19251,7 +19251,7 @@
         <v>19</v>
       </c>
       <c r="G404">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H404">
         <v>44</v>
@@ -19283,7 +19283,7 @@
         <v>22</v>
       </c>
       <c r="G405">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H405">
         <v>67</v>
@@ -19315,7 +19315,7 @@
         <v>25</v>
       </c>
       <c r="G406">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H406">
         <v>56</v>
@@ -19347,7 +19347,7 @@
         <v>11</v>
       </c>
       <c r="G407">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H407">
         <v>49</v>
@@ -19379,7 +19379,7 @@
         <v>16</v>
       </c>
       <c r="G408">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H408">
         <v>43</v>
@@ -19411,7 +19411,7 @@
         <v>19</v>
       </c>
       <c r="G409">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H409">
         <v>100</v>
@@ -19443,7 +19443,7 @@
         <v>22</v>
       </c>
       <c r="G410">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H410">
         <v>63</v>
@@ -19475,7 +19475,7 @@
         <v>25</v>
       </c>
       <c r="G411">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H411">
         <v>80</v>
@@ -19507,7 +19507,7 @@
         <v>11</v>
       </c>
       <c r="G412">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H412">
         <v>64</v>
@@ -19539,7 +19539,7 @@
         <v>16</v>
       </c>
       <c r="G413">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H413">
         <v>73</v>
@@ -19571,7 +19571,7 @@
         <v>19</v>
       </c>
       <c r="G414">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H414">
         <v>50</v>
@@ -19603,7 +19603,7 @@
         <v>22</v>
       </c>
       <c r="G415">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H415">
         <v>49</v>
@@ -19635,7 +19635,7 @@
         <v>25</v>
       </c>
       <c r="G416">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H416">
         <v>40</v>
@@ -19667,7 +19667,7 @@
         <v>11</v>
       </c>
       <c r="G417">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H417">
         <v>80</v>
@@ -19699,7 +19699,7 @@
         <v>16</v>
       </c>
       <c r="G418">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H418">
         <v>48</v>
@@ -19731,7 +19731,7 @@
         <v>19</v>
       </c>
       <c r="G419">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H419">
         <v>68</v>
@@ -19763,7 +19763,7 @@
         <v>22</v>
       </c>
       <c r="G420">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H420">
         <v>46</v>
@@ -19795,7 +19795,7 @@
         <v>25</v>
       </c>
       <c r="G421">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H421">
         <v>45</v>
@@ -19827,7 +19827,7 @@
         <v>11</v>
       </c>
       <c r="G422">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H422">
         <v>24</v>
@@ -19859,7 +19859,7 @@
         <v>16</v>
       </c>
       <c r="G423">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H423">
         <v>74</v>
@@ -19891,7 +19891,7 @@
         <v>19</v>
       </c>
       <c r="G424">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H424">
         <v>61</v>
@@ -19923,7 +19923,7 @@
         <v>22</v>
       </c>
       <c r="G425">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H425">
         <v>62</v>
@@ -19955,7 +19955,7 @@
         <v>25</v>
       </c>
       <c r="G426">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H426">
         <v>62</v>
@@ -19987,7 +19987,7 @@
         <v>11</v>
       </c>
       <c r="G427">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H427">
         <v>60</v>
@@ -20019,7 +20019,7 @@
         <v>16</v>
       </c>
       <c r="G428">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H428">
         <v>70</v>
@@ -20051,7 +20051,7 @@
         <v>19</v>
       </c>
       <c r="G429">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H429">
         <v>77</v>
@@ -20083,7 +20083,7 @@
         <v>22</v>
       </c>
       <c r="G430">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H430">
         <v>54</v>
@@ -20115,7 +20115,7 @@
         <v>25</v>
       </c>
       <c r="G431">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H431">
         <v>74</v>
@@ -20147,7 +20147,7 @@
         <v>11</v>
       </c>
       <c r="G432">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H432">
         <v>49</v>
@@ -20179,7 +20179,7 @@
         <v>16</v>
       </c>
       <c r="G433">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H433">
         <v>30</v>
@@ -20211,7 +20211,7 @@
         <v>19</v>
       </c>
       <c r="G434">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H434">
         <v>49</v>
@@ -20243,7 +20243,7 @@
         <v>22</v>
       </c>
       <c r="G435">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H435">
         <v>68</v>
@@ -20275,7 +20275,7 @@
         <v>25</v>
       </c>
       <c r="G436">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H436">
         <v>31</v>
@@ -20307,7 +20307,7 @@
         <v>11</v>
       </c>
       <c r="G437">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H437">
         <v>47</v>
@@ -20339,7 +20339,7 @@
         <v>16</v>
       </c>
       <c r="G438">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H438">
         <v>28</v>
@@ -20371,7 +20371,7 @@
         <v>19</v>
       </c>
       <c r="G439">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H439">
         <v>63</v>
@@ -20403,7 +20403,7 @@
         <v>22</v>
       </c>
       <c r="G440">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H440">
         <v>61</v>
@@ -20435,7 +20435,7 @@
         <v>25</v>
       </c>
       <c r="G441">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H441">
         <v>54</v>
@@ -20467,7 +20467,7 @@
         <v>11</v>
       </c>
       <c r="G442">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H442">
         <v>42</v>
@@ -20499,7 +20499,7 @@
         <v>16</v>
       </c>
       <c r="G443">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H443">
         <v>19</v>
@@ -20531,7 +20531,7 @@
         <v>19</v>
       </c>
       <c r="G444">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H444">
         <v>68</v>
@@ -20563,7 +20563,7 @@
         <v>22</v>
       </c>
       <c r="G445">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H445">
         <v>48</v>
@@ -20595,7 +20595,7 @@
         <v>25</v>
       </c>
       <c r="G446">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H446">
         <v>71</v>
@@ -20627,7 +20627,7 @@
         <v>11</v>
       </c>
       <c r="G447">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H447">
         <v>55</v>
@@ -20659,7 +20659,7 @@
         <v>16</v>
       </c>
       <c r="G448">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H448">
         <v>75</v>
@@ -20691,7 +20691,7 @@
         <v>19</v>
       </c>
       <c r="G449">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H449">
         <v>51</v>
@@ -20723,7 +20723,7 @@
         <v>22</v>
       </c>
       <c r="G450">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H450">
         <v>77</v>
@@ -20755,7 +20755,7 @@
         <v>25</v>
       </c>
       <c r="G451">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H451">
         <v>43</v>
@@ -20787,7 +20787,7 @@
         <v>11</v>
       </c>
       <c r="G452">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H452">
         <v>37</v>
@@ -20819,7 +20819,7 @@
         <v>16</v>
       </c>
       <c r="G453">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H453">
         <v>76</v>
@@ -20851,7 +20851,7 @@
         <v>19</v>
       </c>
       <c r="G454">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H454">
         <v>54</v>
@@ -20883,7 +20883,7 @@
         <v>22</v>
       </c>
       <c r="G455">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H455">
         <v>46</v>
@@ -20915,7 +20915,7 @@
         <v>25</v>
       </c>
       <c r="G456">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H456">
         <v>44</v>
@@ -20947,7 +20947,7 @@
         <v>11</v>
       </c>
       <c r="G457">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H457">
         <v>89</v>
@@ -20979,7 +20979,7 @@
         <v>16</v>
       </c>
       <c r="G458">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H458">
         <v>70</v>
@@ -21011,7 +21011,7 @@
         <v>19</v>
       </c>
       <c r="G459">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H459">
         <v>72</v>
@@ -21043,7 +21043,7 @@
         <v>22</v>
       </c>
       <c r="G460">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H460">
         <v>40</v>
@@ -21075,7 +21075,7 @@
         <v>25</v>
       </c>
       <c r="G461">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H461">
         <v>50</v>
@@ -21107,7 +21107,7 @@
         <v>11</v>
       </c>
       <c r="G462">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H462">
         <v>63</v>
@@ -21139,7 +21139,7 @@
         <v>16</v>
       </c>
       <c r="G463">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H463">
         <v>48</v>
@@ -21171,7 +21171,7 @@
         <v>19</v>
       </c>
       <c r="G464">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H464">
         <v>62</v>
@@ -21203,7 +21203,7 @@
         <v>22</v>
       </c>
       <c r="G465">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H465">
         <v>44</v>
@@ -21235,7 +21235,7 @@
         <v>25</v>
       </c>
       <c r="G466">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H466">
         <v>62</v>
@@ -21267,7 +21267,7 @@
         <v>11</v>
       </c>
       <c r="G467">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H467">
         <v>36</v>
@@ -21299,7 +21299,7 @@
         <v>16</v>
       </c>
       <c r="G468">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H468">
         <v>41</v>
@@ -21331,7 +21331,7 @@
         <v>19</v>
       </c>
       <c r="G469">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H469">
         <v>69</v>
@@ -21363,7 +21363,7 @@
         <v>22</v>
       </c>
       <c r="G470">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H470">
         <v>30</v>
@@ -21395,7 +21395,7 @@
         <v>25</v>
       </c>
       <c r="G471">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H471">
         <v>90</v>
@@ -21427,7 +21427,7 @@
         <v>11</v>
       </c>
       <c r="G472">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H472">
         <v>48</v>
@@ -21459,7 +21459,7 @@
         <v>16</v>
       </c>
       <c r="G473">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H473">
         <v>81</v>
@@ -21491,7 +21491,7 @@
         <v>19</v>
       </c>
       <c r="G474">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H474">
         <v>49</v>
@@ -21523,7 +21523,7 @@
         <v>22</v>
       </c>
       <c r="G475">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H475">
         <v>51</v>
@@ -21555,7 +21555,7 @@
         <v>25</v>
       </c>
       <c r="G476">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H476">
         <v>71</v>
@@ -21587,7 +21587,7 @@
         <v>11</v>
       </c>
       <c r="G477">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H477">
         <v>67</v>
@@ -21619,7 +21619,7 @@
         <v>16</v>
       </c>
       <c r="G478">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H478">
         <v>100</v>
@@ -21651,7 +21651,7 @@
         <v>19</v>
       </c>
       <c r="G479">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H479">
         <v>42</v>
@@ -21683,7 +21683,7 @@
         <v>22</v>
       </c>
       <c r="G480">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H480">
         <v>42</v>
@@ -21715,7 +21715,7 @@
         <v>25</v>
       </c>
       <c r="G481">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H481">
         <v>67</v>
@@ -21747,7 +21747,7 @@
         <v>11</v>
       </c>
       <c r="G482">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H482">
         <v>75</v>
@@ -21779,7 +21779,7 @@
         <v>16</v>
       </c>
       <c r="G483">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H483">
         <v>78</v>
@@ -21811,7 +21811,7 @@
         <v>19</v>
       </c>
       <c r="G484">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H484">
         <v>79</v>
@@ -21843,7 +21843,7 @@
         <v>22</v>
       </c>
       <c r="G485">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H485">
         <v>38</v>
@@ -21875,7 +21875,7 @@
         <v>25</v>
       </c>
       <c r="G486">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H486">
         <v>37</v>
@@ -21907,7 +21907,7 @@
         <v>11</v>
       </c>
       <c r="G487">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H487">
         <v>69</v>
@@ -21939,7 +21939,7 @@
         <v>16</v>
       </c>
       <c r="G488">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H488">
         <v>64</v>
@@ -21971,7 +21971,7 @@
         <v>19</v>
       </c>
       <c r="G489">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H489">
         <v>73</v>
@@ -22003,7 +22003,7 @@
         <v>22</v>
       </c>
       <c r="G490">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H490">
         <v>77</v>
@@ -22035,7 +22035,7 @@
         <v>25</v>
       </c>
       <c r="G491">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H491">
         <v>74</v>
@@ -22067,7 +22067,7 @@
         <v>11</v>
       </c>
       <c r="G492">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H492">
         <v>84</v>
@@ -22099,7 +22099,7 @@
         <v>16</v>
       </c>
       <c r="G493">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H493">
         <v>80</v>
@@ -22131,7 +22131,7 @@
         <v>19</v>
       </c>
       <c r="G494">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H494">
         <v>35</v>
@@ -22163,7 +22163,7 @@
         <v>22</v>
       </c>
       <c r="G495">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H495">
         <v>35</v>
@@ -22195,7 +22195,7 @@
         <v>25</v>
       </c>
       <c r="G496">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H496">
         <v>77</v>
@@ -22227,7 +22227,7 @@
         <v>11</v>
       </c>
       <c r="G497">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H497">
         <v>46</v>
@@ -22259,7 +22259,7 @@
         <v>16</v>
       </c>
       <c r="G498">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H498">
         <v>93</v>
@@ -22291,7 +22291,7 @@
         <v>19</v>
       </c>
       <c r="G499">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H499">
         <v>73</v>
@@ -22323,7 +22323,7 @@
         <v>22</v>
       </c>
       <c r="G500">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H500">
         <v>83</v>
@@ -22355,7 +22355,7 @@
         <v>25</v>
       </c>
       <c r="G501">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H501">
         <v>72</v>
@@ -22387,7 +22387,7 @@
         <v>11</v>
       </c>
       <c r="G502">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H502">
         <v>63</v>
@@ -22419,7 +22419,7 @@
         <v>16</v>
       </c>
       <c r="G503">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H503">
         <v>49</v>
@@ -22451,7 +22451,7 @@
         <v>19</v>
       </c>
       <c r="G504">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H504">
         <v>64</v>
@@ -22483,7 +22483,7 @@
         <v>22</v>
       </c>
       <c r="G505">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H505">
         <v>31</v>
@@ -22515,7 +22515,7 @@
         <v>25</v>
       </c>
       <c r="G506">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H506">
         <v>69</v>
@@ -22547,7 +22547,7 @@
         <v>11</v>
       </c>
       <c r="G507">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H507">
         <v>41</v>
@@ -22579,7 +22579,7 @@
         <v>16</v>
       </c>
       <c r="G508">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H508">
         <v>28</v>
@@ -22611,7 +22611,7 @@
         <v>19</v>
       </c>
       <c r="G509">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H509">
         <v>67</v>
@@ -22643,7 +22643,7 @@
         <v>22</v>
       </c>
       <c r="G510">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H510">
         <v>81</v>
@@ -22675,7 +22675,7 @@
         <v>25</v>
       </c>
       <c r="G511">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H511">
         <v>51</v>
@@ -22707,7 +22707,7 @@
         <v>11</v>
       </c>
       <c r="G512">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H512">
         <v>55</v>
@@ -22739,7 +22739,7 @@
         <v>16</v>
       </c>
       <c r="G513">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H513">
         <v>48</v>
@@ -22771,7 +22771,7 @@
         <v>19</v>
       </c>
       <c r="G514">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H514">
         <v>77</v>
@@ -22803,7 +22803,7 @@
         <v>22</v>
       </c>
       <c r="G515">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H515">
         <v>92</v>
@@ -22835,7 +22835,7 @@
         <v>25</v>
       </c>
       <c r="G516">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H516">
         <v>82</v>
@@ -22867,7 +22867,7 @@
         <v>11</v>
       </c>
       <c r="G517">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H517">
         <v>49</v>
@@ -22899,7 +22899,7 @@
         <v>16</v>
       </c>
       <c r="G518">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H518">
         <v>65</v>
@@ -22931,7 +22931,7 @@
         <v>19</v>
       </c>
       <c r="G519">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H519">
         <v>69</v>
@@ -22963,7 +22963,7 @@
         <v>22</v>
       </c>
       <c r="G520">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H520">
         <v>30</v>
@@ -22995,7 +22995,7 @@
         <v>25</v>
       </c>
       <c r="G521">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H521">
         <v>72</v>
@@ -23027,7 +23027,7 @@
         <v>11</v>
       </c>
       <c r="G522">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H522">
         <v>53</v>
@@ -23059,7 +23059,7 @@
         <v>16</v>
       </c>
       <c r="G523">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H523">
         <v>61</v>
@@ -23091,7 +23091,7 @@
         <v>19</v>
       </c>
       <c r="G524">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H524">
         <v>70</v>
@@ -23123,7 +23123,7 @@
         <v>22</v>
       </c>
       <c r="G525">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H525">
         <v>64</v>
@@ -23155,7 +23155,7 @@
         <v>25</v>
       </c>
       <c r="G526">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H526">
         <v>49</v>
@@ -23187,7 +23187,7 @@
         <v>11</v>
       </c>
       <c r="G527">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H527">
         <v>63</v>
@@ -23219,7 +23219,7 @@
         <v>16</v>
       </c>
       <c r="G528">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H528">
         <v>53</v>
@@ -23251,7 +23251,7 @@
         <v>19</v>
       </c>
       <c r="G529">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H529">
         <v>88</v>
@@ -23283,7 +23283,7 @@
         <v>22</v>
       </c>
       <c r="G530">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H530">
         <v>56</v>
@@ -23315,7 +23315,7 @@
         <v>25</v>
       </c>
       <c r="G531">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H531">
         <v>74</v>
@@ -23347,7 +23347,7 @@
         <v>11</v>
       </c>
       <c r="G532">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H532">
         <v>57</v>
@@ -23379,7 +23379,7 @@
         <v>16</v>
       </c>
       <c r="G533">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H533">
         <v>80</v>
@@ -23411,7 +23411,7 @@
         <v>19</v>
       </c>
       <c r="G534">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H534">
         <v>70</v>
@@ -23443,7 +23443,7 @@
         <v>22</v>
       </c>
       <c r="G535">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H535">
         <v>88</v>
@@ -23475,7 +23475,7 @@
         <v>25</v>
       </c>
       <c r="G536">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H536">
         <v>27</v>
@@ -23507,7 +23507,7 @@
         <v>11</v>
       </c>
       <c r="G537">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H537">
         <v>77</v>
@@ -23539,7 +23539,7 @@
         <v>16</v>
       </c>
       <c r="G538">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H538">
         <v>91</v>
@@ -23571,7 +23571,7 @@
         <v>19</v>
       </c>
       <c r="G539">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H539">
         <v>95</v>
@@ -23603,7 +23603,7 @@
         <v>22</v>
       </c>
       <c r="G540">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H540">
         <v>79</v>
@@ -23635,7 +23635,7 @@
         <v>25</v>
       </c>
       <c r="G541">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H541">
         <v>75</v>
@@ -23667,7 +23667,7 @@
         <v>11</v>
       </c>
       <c r="G542">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H542">
         <v>52</v>
@@ -23699,7 +23699,7 @@
         <v>16</v>
       </c>
       <c r="G543">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H543">
         <v>77</v>
@@ -23731,7 +23731,7 @@
         <v>19</v>
       </c>
       <c r="G544">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H544">
         <v>86</v>
@@ -23763,7 +23763,7 @@
         <v>22</v>
       </c>
       <c r="G545">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H545">
         <v>87</v>
@@ -23795,7 +23795,7 @@
         <v>25</v>
       </c>
       <c r="G546">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H546">
         <v>29</v>
@@ -23827,7 +23827,7 @@
         <v>11</v>
       </c>
       <c r="G547">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H547">
         <v>67</v>
@@ -23859,7 +23859,7 @@
         <v>16</v>
       </c>
       <c r="G548">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H548">
         <v>95</v>
@@ -23891,7 +23891,7 @@
         <v>19</v>
       </c>
       <c r="G549">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H549">
         <v>48</v>
@@ -23923,7 +23923,7 @@
         <v>22</v>
       </c>
       <c r="G550">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H550">
         <v>68</v>
@@ -23955,7 +23955,7 @@
         <v>25</v>
       </c>
       <c r="G551">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H551">
         <v>66</v>
@@ -23987,7 +23987,7 @@
         <v>11</v>
       </c>
       <c r="G552">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H552">
         <v>91</v>
@@ -24019,7 +24019,7 @@
         <v>16</v>
       </c>
       <c r="G553">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H553">
         <v>39</v>
@@ -24051,7 +24051,7 @@
         <v>19</v>
       </c>
       <c r="G554">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H554">
         <v>88</v>
@@ -24083,7 +24083,7 @@
         <v>22</v>
       </c>
       <c r="G555">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H555">
         <v>50</v>
@@ -24115,7 +24115,7 @@
         <v>25</v>
       </c>
       <c r="G556">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H556">
         <v>35</v>
@@ -24147,7 +24147,7 @@
         <v>11</v>
       </c>
       <c r="G557">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H557">
         <v>46</v>
@@ -24179,7 +24179,7 @@
         <v>16</v>
       </c>
       <c r="G558">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H558">
         <v>2</v>
@@ -24211,7 +24211,7 @@
         <v>19</v>
       </c>
       <c r="G559">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H559">
         <v>57</v>
@@ -24243,7 +24243,7 @@
         <v>22</v>
       </c>
       <c r="G560">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H560">
         <v>44</v>
@@ -24275,7 +24275,7 @@
         <v>25</v>
       </c>
       <c r="G561">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H561">
         <v>43</v>
@@ -24307,7 +24307,7 @@
         <v>11</v>
       </c>
       <c r="G562">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H562">
         <v>58</v>
@@ -24339,7 +24339,7 @@
         <v>16</v>
       </c>
       <c r="G563">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H563">
         <v>27</v>
@@ -24371,7 +24371,7 @@
         <v>19</v>
       </c>
       <c r="G564">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H564">
         <v>35</v>
@@ -24403,7 +24403,7 @@
         <v>22</v>
       </c>
       <c r="G565">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H565">
         <v>57</v>
@@ -24435,7 +24435,7 @@
         <v>25</v>
       </c>
       <c r="G566">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H566">
         <v>67</v>
@@ -24467,7 +24467,7 @@
         <v>11</v>
       </c>
       <c r="G567">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H567">
         <v>52</v>
@@ -24499,7 +24499,7 @@
         <v>16</v>
       </c>
       <c r="G568">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H568">
         <v>68</v>
@@ -24531,7 +24531,7 @@
         <v>19</v>
       </c>
       <c r="G569">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H569">
         <v>48</v>
@@ -24563,7 +24563,7 @@
         <v>22</v>
       </c>
       <c r="G570">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H570">
         <v>63</v>
@@ -24595,7 +24595,7 @@
         <v>25</v>
       </c>
       <c r="G571">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H571">
         <v>67</v>
@@ -24627,7 +24627,7 @@
         <v>11</v>
       </c>
       <c r="G572">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H572">
         <v>52</v>
@@ -24659,7 +24659,7 @@
         <v>16</v>
       </c>
       <c r="G573">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H573">
         <v>66</v>
@@ -24691,7 +24691,7 @@
         <v>19</v>
       </c>
       <c r="G574">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H574">
         <v>45</v>
@@ -24723,7 +24723,7 @@
         <v>22</v>
       </c>
       <c r="G575">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H575">
         <v>56</v>
@@ -24755,7 +24755,7 @@
         <v>25</v>
       </c>
       <c r="G576">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H576">
         <v>27</v>
@@ -24787,7 +24787,7 @@
         <v>11</v>
       </c>
       <c r="G577">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H577">
         <v>60</v>
@@ -24819,7 +24819,7 @@
         <v>16</v>
       </c>
       <c r="G578">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H578">
         <v>62</v>
@@ -24851,7 +24851,7 @@
         <v>19</v>
       </c>
       <c r="G579">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H579">
         <v>60</v>
@@ -24883,7 +24883,7 @@
         <v>22</v>
       </c>
       <c r="G580">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H580">
         <v>68</v>
@@ -24915,7 +24915,7 @@
         <v>25</v>
       </c>
       <c r="G581">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H581">
         <v>71</v>
@@ -24947,7 +24947,7 @@
         <v>11</v>
       </c>
       <c r="G582">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H582">
         <v>69</v>
@@ -24979,7 +24979,7 @@
         <v>16</v>
       </c>
       <c r="G583">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H583">
         <v>55</v>
@@ -25011,7 +25011,7 @@
         <v>19</v>
       </c>
       <c r="G584">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H584">
         <v>58</v>
@@ -25043,7 +25043,7 @@
         <v>22</v>
       </c>
       <c r="G585">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H585">
         <v>91</v>
@@ -25075,7 +25075,7 @@
         <v>25</v>
       </c>
       <c r="G586">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H586">
         <v>65</v>
@@ -25107,7 +25107,7 @@
         <v>11</v>
       </c>
       <c r="G587">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H587">
         <v>72</v>
@@ -25139,7 +25139,7 @@
         <v>16</v>
       </c>
       <c r="G588">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H588">
         <v>59</v>
@@ -25171,7 +25171,7 @@
         <v>19</v>
       </c>
       <c r="G589">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H589">
         <v>43</v>
@@ -25203,7 +25203,7 @@
         <v>22</v>
       </c>
       <c r="G590">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H590">
         <v>49</v>
@@ -25235,7 +25235,7 @@
         <v>25</v>
       </c>
       <c r="G591">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H591">
         <v>53</v>
@@ -25267,7 +25267,7 @@
         <v>11</v>
       </c>
       <c r="G592">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H592">
         <v>58</v>
@@ -25299,7 +25299,7 @@
         <v>16</v>
       </c>
       <c r="G593">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H593">
         <v>28</v>
@@ -25331,7 +25331,7 @@
         <v>19</v>
       </c>
       <c r="G594">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H594">
         <v>62</v>
@@ -25363,7 +25363,7 @@
         <v>22</v>
       </c>
       <c r="G595">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H595">
         <v>62</v>
@@ -25395,7 +25395,7 @@
         <v>25</v>
       </c>
       <c r="G596">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H596">
         <v>100</v>
@@ -25427,7 +25427,7 @@
         <v>11</v>
       </c>
       <c r="G597">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H597">
         <v>43</v>
@@ -25459,7 +25459,7 @@
         <v>16</v>
       </c>
       <c r="G598">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H598">
         <v>46</v>
@@ -25491,7 +25491,7 @@
         <v>19</v>
       </c>
       <c r="G599">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H599">
         <v>67</v>
@@ -25523,7 +25523,7 @@
         <v>22</v>
       </c>
       <c r="G600">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H600">
         <v>100</v>
@@ -25555,7 +25555,7 @@
         <v>25</v>
       </c>
       <c r="G601">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H601">
         <v>50</v>
@@ -25587,7 +25587,7 @@
         <v>11</v>
       </c>
       <c r="G602">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H602">
         <v>36</v>
@@ -25619,7 +25619,7 @@
         <v>16</v>
       </c>
       <c r="G603">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H603">
         <v>96</v>
@@ -25651,7 +25651,7 @@
         <v>19</v>
       </c>
       <c r="G604">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H604">
         <v>48</v>
@@ -25683,7 +25683,7 @@
         <v>22</v>
       </c>
       <c r="G605">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H605">
         <v>67</v>
@@ -25715,7 +25715,7 @@
         <v>25</v>
       </c>
       <c r="G606">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H606">
         <v>40</v>
@@ -25747,7 +25747,7 @@
         <v>11</v>
       </c>
       <c r="G607">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H607">
         <v>34</v>
@@ -25779,7 +25779,7 @@
         <v>16</v>
       </c>
       <c r="G608">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H608">
         <v>45</v>
@@ -25811,7 +25811,7 @@
         <v>19</v>
       </c>
       <c r="G609">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H609">
         <v>57</v>
@@ -25843,7 +25843,7 @@
         <v>22</v>
       </c>
       <c r="G610">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H610">
         <v>33</v>
@@ -25875,7 +25875,7 @@
         <v>25</v>
       </c>
       <c r="G611">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H611">
         <v>75</v>
@@ -25907,7 +25907,7 @@
         <v>11</v>
       </c>
       <c r="G612">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H612">
         <v>60</v>
@@ -25939,7 +25939,7 @@
         <v>16</v>
       </c>
       <c r="G613">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H613">
         <v>43</v>
@@ -25971,7 +25971,7 @@
         <v>19</v>
       </c>
       <c r="G614">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H614">
         <v>65</v>
@@ -26003,7 +26003,7 @@
         <v>22</v>
       </c>
       <c r="G615">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H615">
         <v>72</v>
@@ -26035,7 +26035,7 @@
         <v>25</v>
       </c>
       <c r="G616">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H616">
         <v>55</v>
@@ -26067,7 +26067,7 @@
         <v>11</v>
       </c>
       <c r="G617">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H617">
         <v>69</v>
@@ -26099,7 +26099,7 @@
         <v>16</v>
       </c>
       <c r="G618">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H618">
         <v>90</v>
@@ -26131,7 +26131,7 @@
         <v>19</v>
       </c>
       <c r="G619">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H619">
         <v>100</v>
@@ -26163,7 +26163,7 @@
         <v>22</v>
       </c>
       <c r="G620">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H620">
         <v>73</v>
@@ -26195,7 +26195,7 @@
         <v>25</v>
       </c>
       <c r="G621">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H621">
         <v>60</v>
@@ -26227,7 +26227,7 @@
         <v>11</v>
       </c>
       <c r="G622">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H622">
         <v>97</v>
@@ -26259,7 +26259,7 @@
         <v>16</v>
       </c>
       <c r="G623">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H623">
         <v>55</v>
@@ -26291,7 +26291,7 @@
         <v>19</v>
       </c>
       <c r="G624">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H624">
         <v>45</v>
@@ -26323,7 +26323,7 @@
         <v>22</v>
       </c>
       <c r="G625">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H625">
         <v>53</v>
@@ -26355,7 +26355,7 @@
         <v>25</v>
       </c>
       <c r="G626">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H626">
         <v>45</v>
@@ -26387,7 +26387,7 @@
         <v>11</v>
       </c>
       <c r="G627">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H627">
         <v>64</v>
@@ -26419,7 +26419,7 @@
         <v>16</v>
       </c>
       <c r="G628">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H628">
         <v>81</v>
@@ -26451,7 +26451,7 @@
         <v>19</v>
       </c>
       <c r="G629">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H629">
         <v>52</v>
@@ -26483,7 +26483,7 @@
         <v>22</v>
       </c>
       <c r="G630">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H630">
         <v>100</v>
@@ -26515,7 +26515,7 @@
         <v>25</v>
       </c>
       <c r="G631">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H631">
         <v>100</v>
@@ -26547,7 +26547,7 @@
         <v>11</v>
       </c>
       <c r="G632">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H632">
         <v>52</v>
@@ -26579,7 +26579,7 @@
         <v>16</v>
       </c>
       <c r="G633">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H633">
         <v>67</v>
@@ -26611,7 +26611,7 @@
         <v>19</v>
       </c>
       <c r="G634">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H634">
         <v>62</v>
@@ -26643,7 +26643,7 @@
         <v>22</v>
       </c>
       <c r="G635">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H635">
         <v>65</v>
@@ -26675,7 +26675,7 @@
         <v>25</v>
       </c>
       <c r="G636">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H636">
         <v>70</v>
@@ -26707,7 +26707,7 @@
         <v>11</v>
       </c>
       <c r="G637">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H637">
         <v>54</v>
@@ -26739,7 +26739,7 @@
         <v>16</v>
       </c>
       <c r="G638">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H638">
         <v>35</v>
@@ -26771,7 +26771,7 @@
         <v>19</v>
       </c>
       <c r="G639">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H639">
         <v>50</v>
@@ -26803,7 +26803,7 @@
         <v>22</v>
       </c>
       <c r="G640">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H640">
         <v>88</v>
@@ -26835,7 +26835,7 @@
         <v>25</v>
       </c>
       <c r="G641">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H641">
         <v>66</v>
@@ -26867,7 +26867,7 @@
         <v>11</v>
       </c>
       <c r="G642">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H642">
         <v>74</v>
@@ -26899,7 +26899,7 @@
         <v>16</v>
       </c>
       <c r="G643">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H643">
         <v>47</v>
@@ -26931,7 +26931,7 @@
         <v>19</v>
       </c>
       <c r="G644">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H644">
         <v>48</v>
@@ -26963,7 +26963,7 @@
         <v>22</v>
       </c>
       <c r="G645">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H645">
         <v>54</v>
@@ -26995,7 +26995,7 @@
         <v>25</v>
       </c>
       <c r="G646">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H646">
         <v>33</v>
@@ -27027,7 +27027,7 @@
         <v>11</v>
       </c>
       <c r="G647">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H647">
         <v>20</v>
@@ -27059,7 +27059,7 @@
         <v>16</v>
       </c>
       <c r="G648">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H648">
         <v>99</v>
@@ -27091,7 +27091,7 @@
         <v>19</v>
       </c>
       <c r="G649">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H649">
         <v>41</v>
@@ -27123,7 +27123,7 @@
         <v>22</v>
       </c>
       <c r="G650">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H650">
         <v>79</v>
@@ -27155,7 +27155,7 @@
         <v>25</v>
       </c>
       <c r="G651">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H651">
         <v>75</v>
@@ -27187,7 +27187,7 @@
         <v>11</v>
       </c>
       <c r="G652">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H652">
         <v>43</v>
@@ -27219,7 +27219,7 @@
         <v>16</v>
       </c>
       <c r="G653">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H653">
         <v>50</v>
@@ -27251,7 +27251,7 @@
         <v>19</v>
       </c>
       <c r="G654">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H654">
         <v>79</v>
@@ -27283,7 +27283,7 @@
         <v>22</v>
       </c>
       <c r="G655">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H655">
         <v>62</v>
@@ -27315,7 +27315,7 @@
         <v>25</v>
       </c>
       <c r="G656">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H656">
         <v>68</v>
@@ -27347,7 +27347,7 @@
         <v>11</v>
       </c>
       <c r="G657">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H657">
         <v>62</v>
@@ -27379,7 +27379,7 @@
         <v>16</v>
       </c>
       <c r="G658">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H658">
         <v>59</v>
@@ -27411,7 +27411,7 @@
         <v>19</v>
       </c>
       <c r="G659">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H659">
         <v>71</v>
@@ -27443,7 +27443,7 @@
         <v>22</v>
       </c>
       <c r="G660">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H660">
         <v>37</v>
@@ -27475,7 +27475,7 @@
         <v>25</v>
       </c>
       <c r="G661">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H661">
         <v>60</v>
@@ -27507,7 +27507,7 @@
         <v>11</v>
       </c>
       <c r="G662">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H662">
         <v>72</v>
@@ -27539,7 +27539,7 @@
         <v>16</v>
       </c>
       <c r="G663">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H663">
         <v>44</v>
@@ -27571,7 +27571,7 @@
         <v>19</v>
       </c>
       <c r="G664">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H664">
         <v>62</v>
@@ -27603,7 +27603,7 @@
         <v>22</v>
       </c>
       <c r="G665">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H665">
         <v>96</v>
@@ -27635,7 +27635,7 @@
         <v>25</v>
       </c>
       <c r="G666">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H666">
         <v>78</v>
@@ -27667,7 +27667,7 @@
         <v>11</v>
       </c>
       <c r="G667">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H667">
         <v>47</v>
@@ -27699,7 +27699,7 @@
         <v>16</v>
       </c>
       <c r="G668">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H668">
         <v>29</v>
@@ -27731,7 +27731,7 @@
         <v>19</v>
       </c>
       <c r="G669">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H669">
         <v>80</v>
@@ -27763,7 +27763,7 @@
         <v>22</v>
       </c>
       <c r="G670">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H670">
         <v>35</v>
@@ -27795,7 +27795,7 @@
         <v>25</v>
       </c>
       <c r="G671">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H671">
         <v>36</v>
@@ -27827,7 +27827,7 @@
         <v>11</v>
       </c>
       <c r="G672">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H672">
         <v>45</v>
@@ -27859,7 +27859,7 @@
         <v>16</v>
       </c>
       <c r="G673">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H673">
         <v>63</v>
@@ -27891,7 +27891,7 @@
         <v>19</v>
       </c>
       <c r="G674">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H674">
         <v>75</v>
@@ -27923,7 +27923,7 @@
         <v>22</v>
       </c>
       <c r="G675">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H675">
         <v>72</v>
@@ -27955,7 +27955,7 @@
         <v>25</v>
       </c>
       <c r="G676">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H676">
         <v>64</v>
@@ -27987,7 +27987,7 @@
         <v>11</v>
       </c>
       <c r="G677">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H677">
         <v>93</v>
@@ -28019,7 +28019,7 @@
         <v>16</v>
       </c>
       <c r="G678">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H678">
         <v>22</v>
@@ -28051,7 +28051,7 @@
         <v>19</v>
       </c>
       <c r="G679">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H679">
         <v>98</v>
@@ -28083,7 +28083,7 @@
         <v>22</v>
       </c>
       <c r="G680">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H680">
         <v>45</v>
@@ -28115,7 +28115,7 @@
         <v>25</v>
       </c>
       <c r="G681">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H681">
         <v>68</v>
@@ -28147,7 +28147,7 @@
         <v>11</v>
       </c>
       <c r="G682">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H682">
         <v>46</v>
@@ -28179,7 +28179,7 @@
         <v>16</v>
       </c>
       <c r="G683">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H683">
         <v>44</v>
@@ -28211,7 +28211,7 @@
         <v>19</v>
       </c>
       <c r="G684">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H684">
         <v>36</v>
@@ -28243,7 +28243,7 @@
         <v>22</v>
       </c>
       <c r="G685">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H685">
         <v>75</v>
@@ -28275,7 +28275,7 @@
         <v>25</v>
       </c>
       <c r="G686">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H686">
         <v>88</v>
@@ -28307,7 +28307,7 @@
         <v>11</v>
       </c>
       <c r="G687">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H687">
         <v>81</v>
@@ -28339,7 +28339,7 @@
         <v>16</v>
       </c>
       <c r="G688">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H688">
         <v>50</v>
@@ -28371,7 +28371,7 @@
         <v>19</v>
       </c>
       <c r="G689">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H689">
         <v>67</v>
@@ -28403,7 +28403,7 @@
         <v>22</v>
       </c>
       <c r="G690">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H690">
         <v>72</v>
@@ -28435,7 +28435,7 @@
         <v>25</v>
       </c>
       <c r="G691">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H691">
         <v>68</v>
@@ -28467,7 +28467,7 @@
         <v>11</v>
       </c>
       <c r="G692">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H692">
         <v>100</v>
@@ -28499,7 +28499,7 @@
         <v>16</v>
       </c>
       <c r="G693">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H693">
         <v>93</v>
@@ -28531,7 +28531,7 @@
         <v>19</v>
       </c>
       <c r="G694">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H694">
         <v>100</v>
@@ -28563,7 +28563,7 @@
         <v>22</v>
       </c>
       <c r="G695">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H695">
         <v>43</v>
@@ -28595,7 +28595,7 @@
         <v>25</v>
       </c>
       <c r="G696">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H696">
         <v>68</v>
@@ -28627,7 +28627,7 @@
         <v>11</v>
       </c>
       <c r="G697">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H697">
         <v>58</v>
@@ -28659,7 +28659,7 @@
         <v>16</v>
       </c>
       <c r="G698">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H698">
         <v>36</v>
@@ -28691,7 +28691,7 @@
         <v>19</v>
       </c>
       <c r="G699">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H699">
         <v>44</v>
@@ -28723,7 +28723,7 @@
         <v>22</v>
       </c>
       <c r="G700">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H700">
         <v>43</v>
@@ -28755,7 +28755,7 @@
         <v>25</v>
       </c>
       <c r="G701">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H701">
         <v>43</v>
@@ -28787,7 +28787,7 @@
         <v>11</v>
       </c>
       <c r="G702">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H702">
         <v>92</v>
@@ -28819,7 +28819,7 @@
         <v>16</v>
       </c>
       <c r="G703">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H703">
         <v>61</v>
@@ -28851,7 +28851,7 @@
         <v>19</v>
       </c>
       <c r="G704">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H704">
         <v>94</v>
@@ -28883,7 +28883,7 @@
         <v>22</v>
       </c>
       <c r="G705">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H705">
         <v>63</v>
@@ -28915,7 +28915,7 @@
         <v>25</v>
       </c>
       <c r="G706">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H706">
         <v>27</v>
@@ -28947,7 +28947,7 @@
         <v>11</v>
       </c>
       <c r="G707">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H707">
         <v>85</v>
@@ -28979,7 +28979,7 @@
         <v>16</v>
       </c>
       <c r="G708">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H708">
         <v>41</v>
@@ -29011,7 +29011,7 @@
         <v>19</v>
       </c>
       <c r="G709">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H709">
         <v>78</v>
@@ -29043,7 +29043,7 @@
         <v>22</v>
       </c>
       <c r="G710">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H710">
         <v>41</v>
@@ -29075,7 +29075,7 @@
         <v>25</v>
       </c>
       <c r="G711">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H711">
         <v>38</v>
@@ -29107,7 +29107,7 @@
         <v>11</v>
       </c>
       <c r="G712">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H712">
         <v>63</v>
@@ -29139,7 +29139,7 @@
         <v>16</v>
       </c>
       <c r="G713">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H713">
         <v>37</v>
@@ -29171,7 +29171,7 @@
         <v>19</v>
       </c>
       <c r="G714">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H714">
         <v>80</v>
@@ -29203,7 +29203,7 @@
         <v>22</v>
       </c>
       <c r="G715">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H715">
         <v>100</v>
@@ -29235,7 +29235,7 @@
         <v>25</v>
       </c>
       <c r="G716">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H716">
         <v>64</v>
@@ -29267,7 +29267,7 @@
         <v>11</v>
       </c>
       <c r="G717">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H717">
         <v>49</v>
@@ -29299,7 +29299,7 @@
         <v>16</v>
       </c>
       <c r="G718">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H718">
         <v>71</v>
@@ -29331,7 +29331,7 @@
         <v>19</v>
       </c>
       <c r="G719">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H719">
         <v>65</v>
@@ -29363,7 +29363,7 @@
         <v>22</v>
       </c>
       <c r="G720">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H720">
         <v>56</v>
@@ -29395,7 +29395,7 @@
         <v>25</v>
       </c>
       <c r="G721">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H721">
         <v>10</v>
@@ -29427,7 +29427,7 @@
         <v>11</v>
       </c>
       <c r="G722">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H722">
         <v>62</v>
@@ -29459,7 +29459,7 @@
         <v>16</v>
       </c>
       <c r="G723">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H723">
         <v>63</v>
@@ -29491,7 +29491,7 @@
         <v>19</v>
       </c>
       <c r="G724">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H724">
         <v>67</v>
@@ -29523,7 +29523,7 @@
         <v>22</v>
       </c>
       <c r="G725">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H725">
         <v>40</v>
@@ -29555,7 +29555,7 @@
         <v>25</v>
       </c>
       <c r="G726">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H726">
         <v>66</v>
@@ -29587,7 +29587,7 @@
         <v>11</v>
       </c>
       <c r="G727">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H727">
         <v>52</v>
@@ -29619,7 +29619,7 @@
         <v>16</v>
       </c>
       <c r="G728">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H728">
         <v>62</v>
@@ -29651,7 +29651,7 @@
         <v>19</v>
       </c>
       <c r="G729">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H729">
         <v>29</v>
@@ -29683,7 +29683,7 @@
         <v>22</v>
       </c>
       <c r="G730">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H730">
         <v>78</v>
@@ -29715,7 +29715,7 @@
         <v>25</v>
       </c>
       <c r="G731">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H731">
         <v>89</v>
@@ -29747,7 +29747,7 @@
         <v>11</v>
       </c>
       <c r="G732">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H732">
         <v>20</v>
@@ -29779,7 +29779,7 @@
         <v>16</v>
       </c>
       <c r="G733">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H733">
         <v>42</v>
@@ -29811,7 +29811,7 @@
         <v>19</v>
       </c>
       <c r="G734">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H734">
         <v>29</v>
@@ -29843,7 +29843,7 @@
         <v>22</v>
       </c>
       <c r="G735">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H735">
         <v>73</v>
@@ -29875,7 +29875,7 @@
         <v>25</v>
       </c>
       <c r="G736">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H736">
         <v>72</v>
@@ -29907,7 +29907,7 @@
         <v>11</v>
       </c>
       <c r="G737">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H737">
         <v>32</v>
@@ -29939,7 +29939,7 @@
         <v>16</v>
       </c>
       <c r="G738">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H738">
         <v>48</v>
@@ -29971,7 +29971,7 @@
         <v>19</v>
       </c>
       <c r="G739">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H739">
         <v>47</v>
@@ -30003,7 +30003,7 @@
         <v>22</v>
       </c>
       <c r="G740">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H740">
         <v>58</v>
@@ -30035,7 +30035,7 @@
         <v>25</v>
       </c>
       <c r="G741">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H741">
         <v>69</v>
@@ -30067,7 +30067,7 @@
         <v>11</v>
       </c>
       <c r="G742">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H742">
         <v>17</v>
@@ -30099,7 +30099,7 @@
         <v>16</v>
       </c>
       <c r="G743">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H743">
         <v>52</v>
@@ -30131,7 +30131,7 @@
         <v>19</v>
       </c>
       <c r="G744">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H744">
         <v>60</v>
@@ -30163,7 +30163,7 @@
         <v>22</v>
       </c>
       <c r="G745">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H745">
         <v>100</v>
@@ -30195,7 +30195,7 @@
         <v>25</v>
       </c>
       <c r="G746">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H746">
         <v>54</v>
@@ -30227,7 +30227,7 @@
         <v>11</v>
       </c>
       <c r="G747">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H747">
         <v>51</v>
@@ -30259,7 +30259,7 @@
         <v>16</v>
       </c>
       <c r="G748">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H748">
         <v>69</v>
@@ -30291,7 +30291,7 @@
         <v>19</v>
       </c>
       <c r="G749">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H749">
         <v>60</v>
@@ -30323,7 +30323,7 @@
         <v>22</v>
       </c>
       <c r="G750">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H750">
         <v>41</v>
@@ -30355,7 +30355,7 @@
         <v>25</v>
       </c>
       <c r="G751">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H751">
         <v>41</v>
@@ -30387,7 +30387,7 @@
         <v>11</v>
       </c>
       <c r="G752">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H752">
         <v>77</v>
@@ -30419,7 +30419,7 @@
         <v>16</v>
       </c>
       <c r="G753">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H753">
         <v>73</v>
@@ -30451,7 +30451,7 @@
         <v>19</v>
       </c>
       <c r="G754">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H754">
         <v>53</v>
@@ -30483,7 +30483,7 @@
         <v>22</v>
       </c>
       <c r="G755">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H755">
         <v>79</v>
@@ -30515,7 +30515,7 @@
         <v>25</v>
       </c>
       <c r="G756">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H756">
         <v>100</v>
@@ -30547,7 +30547,7 @@
         <v>11</v>
       </c>
       <c r="G757">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H757">
         <v>57</v>
@@ -30579,7 +30579,7 @@
         <v>16</v>
       </c>
       <c r="G758">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H758">
         <v>56</v>
@@ -30611,7 +30611,7 @@
         <v>19</v>
       </c>
       <c r="G759">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H759">
         <v>21</v>
@@ -30643,7 +30643,7 @@
         <v>22</v>
       </c>
       <c r="G760">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H760">
         <v>58</v>
@@ -30675,7 +30675,7 @@
         <v>25</v>
       </c>
       <c r="G761">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H761">
         <v>53</v>
@@ -30707,7 +30707,7 @@
         <v>11</v>
       </c>
       <c r="G762">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H762">
         <v>78</v>
@@ -30739,7 +30739,7 @@
         <v>16</v>
       </c>
       <c r="G763">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H763">
         <v>77</v>
@@ -30771,7 +30771,7 @@
         <v>19</v>
       </c>
       <c r="G764">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H764">
         <v>47</v>
@@ -30803,7 +30803,7 @@
         <v>22</v>
       </c>
       <c r="G765">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H765">
         <v>40</v>
@@ -30835,7 +30835,7 @@
         <v>25</v>
       </c>
       <c r="G766">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H766">
         <v>27</v>
@@ -30867,7 +30867,7 @@
         <v>11</v>
       </c>
       <c r="G767">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H767">
         <v>61</v>
@@ -30899,7 +30899,7 @@
         <v>16</v>
       </c>
       <c r="G768">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H768">
         <v>94</v>
@@ -30931,7 +30931,7 @@
         <v>19</v>
       </c>
       <c r="G769">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H769">
         <v>48</v>
@@ -30963,7 +30963,7 @@
         <v>22</v>
       </c>
       <c r="G770">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H770">
         <v>49</v>
@@ -30995,7 +30995,7 @@
         <v>25</v>
       </c>
       <c r="G771">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H771">
         <v>42</v>
@@ -31027,7 +31027,7 @@
         <v>11</v>
       </c>
       <c r="G772">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H772">
         <v>91</v>
@@ -31059,7 +31059,7 @@
         <v>16</v>
       </c>
       <c r="G773">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H773">
         <v>71</v>
@@ -31091,7 +31091,7 @@
         <v>19</v>
       </c>
       <c r="G774">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H774">
         <v>80</v>
@@ -31123,7 +31123,7 @@
         <v>22</v>
       </c>
       <c r="G775">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H775">
         <v>70</v>
@@ -31155,7 +31155,7 @@
         <v>25</v>
       </c>
       <c r="G776">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H776">
         <v>56</v>
@@ -31187,7 +31187,7 @@
         <v>11</v>
       </c>
       <c r="G777">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H777">
         <v>62</v>
@@ -31219,7 +31219,7 @@
         <v>16</v>
       </c>
       <c r="G778">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H778">
         <v>39</v>
@@ -31251,7 +31251,7 @@
         <v>19</v>
       </c>
       <c r="G779">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H779">
         <v>61</v>
@@ -31283,7 +31283,7 @@
         <v>22</v>
       </c>
       <c r="G780">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H780">
         <v>48</v>
@@ -31315,7 +31315,7 @@
         <v>25</v>
       </c>
       <c r="G781">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H781">
         <v>72</v>
@@ -31347,7 +31347,7 @@
         <v>11</v>
       </c>
       <c r="G782">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H782">
         <v>43</v>
@@ -31379,7 +31379,7 @@
         <v>16</v>
       </c>
       <c r="G783">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H783">
         <v>34</v>
@@ -31411,7 +31411,7 @@
         <v>19</v>
       </c>
       <c r="G784">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H784">
         <v>57</v>
@@ -31443,7 +31443,7 @@
         <v>22</v>
       </c>
       <c r="G785">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H785">
         <v>53</v>
@@ -31475,7 +31475,7 @@
         <v>25</v>
       </c>
       <c r="G786">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H786">
         <v>76</v>
@@ -31507,7 +31507,7 @@
         <v>11</v>
       </c>
       <c r="G787">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H787">
         <v>100</v>
@@ -31539,7 +31539,7 @@
         <v>16</v>
       </c>
       <c r="G788">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H788">
         <v>45</v>
@@ -31571,7 +31571,7 @@
         <v>19</v>
       </c>
       <c r="G789">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H789">
         <v>100</v>
@@ -31603,7 +31603,7 @@
         <v>22</v>
       </c>
       <c r="G790">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H790">
         <v>32</v>
@@ -31635,7 +31635,7 @@
         <v>25</v>
       </c>
       <c r="G791">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H791">
         <v>97</v>
@@ -31667,7 +31667,7 @@
         <v>11</v>
       </c>
       <c r="G792">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H792">
         <v>48</v>
@@ -31699,7 +31699,7 @@
         <v>16</v>
       </c>
       <c r="G793">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H793">
         <v>73</v>
@@ -31731,7 +31731,7 @@
         <v>19</v>
       </c>
       <c r="G794">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H794">
         <v>89</v>
@@ -31763,7 +31763,7 @@
         <v>22</v>
       </c>
       <c r="G795">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H795">
         <v>8</v>
@@ -31795,7 +31795,7 @@
         <v>25</v>
       </c>
       <c r="G796">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H796">
         <v>47</v>
@@ -31827,7 +31827,7 @@
         <v>11</v>
       </c>
       <c r="G797">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H797">
         <v>57</v>
@@ -31859,7 +31859,7 @@
         <v>16</v>
       </c>
       <c r="G798">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H798">
         <v>40</v>
@@ -31891,7 +31891,7 @@
         <v>19</v>
       </c>
       <c r="G799">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H799">
         <v>41</v>
@@ -31923,7 +31923,7 @@
         <v>22</v>
       </c>
       <c r="G800">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H800">
         <v>40</v>
@@ -31955,7 +31955,7 @@
         <v>25</v>
       </c>
       <c r="G801">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H801">
         <v>76</v>
@@ -31987,7 +31987,7 @@
         <v>11</v>
       </c>
       <c r="G802">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H802">
         <v>45</v>
@@ -32019,7 +32019,7 @@
         <v>16</v>
       </c>
       <c r="G803">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H803">
         <v>49</v>
@@ -32051,7 +32051,7 @@
         <v>19</v>
       </c>
       <c r="G804">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H804">
         <v>39</v>
@@ -32083,7 +32083,7 @@
         <v>22</v>
       </c>
       <c r="G805">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H805">
         <v>13</v>
@@ -32115,7 +32115,7 @@
         <v>25</v>
       </c>
       <c r="G806">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H806">
         <v>47</v>
@@ -32147,7 +32147,7 @@
         <v>11</v>
       </c>
       <c r="G807">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H807">
         <v>34</v>
@@ -32179,7 +32179,7 @@
         <v>16</v>
       </c>
       <c r="G808">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H808">
         <v>62</v>
@@ -32211,7 +32211,7 @@
         <v>19</v>
       </c>
       <c r="G809">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H809">
         <v>65</v>
@@ -32243,7 +32243,7 @@
         <v>22</v>
       </c>
       <c r="G810">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H810">
         <v>73</v>
@@ -32275,7 +32275,7 @@
         <v>25</v>
       </c>
       <c r="G811">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H811">
         <v>49</v>
@@ -32307,7 +32307,7 @@
         <v>11</v>
       </c>
       <c r="G812">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H812">
         <v>71</v>
@@ -32339,7 +32339,7 @@
         <v>16</v>
       </c>
       <c r="G813">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H813">
         <v>43</v>
@@ -32371,7 +32371,7 @@
         <v>19</v>
       </c>
       <c r="G814">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H814">
         <v>48</v>
@@ -32403,7 +32403,7 @@
         <v>22</v>
       </c>
       <c r="G815">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H815">
         <v>41</v>
@@ -32435,7 +32435,7 @@
         <v>25</v>
       </c>
       <c r="G816">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H816">
         <v>24</v>
@@ -32467,7 +32467,7 @@
         <v>11</v>
       </c>
       <c r="G817">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H817">
         <v>85</v>
@@ -32499,7 +32499,7 @@
         <v>16</v>
       </c>
       <c r="G818">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H818">
         <v>49</v>
@@ -32531,7 +32531,7 @@
         <v>19</v>
       </c>
       <c r="G819">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H819">
         <v>27</v>
@@ -32563,7 +32563,7 @@
         <v>22</v>
       </c>
       <c r="G820">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H820">
         <v>66</v>
@@ -32595,7 +32595,7 @@
         <v>25</v>
       </c>
       <c r="G821">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H821">
         <v>66</v>
@@ -32627,7 +32627,7 @@
         <v>11</v>
       </c>
       <c r="G822">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H822">
         <v>75</v>
@@ -32659,7 +32659,7 @@
         <v>16</v>
       </c>
       <c r="G823">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H823">
         <v>52</v>
@@ -32691,7 +32691,7 @@
         <v>19</v>
       </c>
       <c r="G824">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H824">
         <v>37</v>
@@ -32723,7 +32723,7 @@
         <v>22</v>
       </c>
       <c r="G825">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H825">
         <v>62</v>
@@ -32755,7 +32755,7 @@
         <v>25</v>
       </c>
       <c r="G826">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H826">
         <v>60</v>
@@ -32787,7 +32787,7 @@
         <v>11</v>
       </c>
       <c r="G827">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H827">
         <v>39</v>
@@ -32819,7 +32819,7 @@
         <v>16</v>
       </c>
       <c r="G828">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H828">
         <v>57</v>
@@ -32851,7 +32851,7 @@
         <v>19</v>
       </c>
       <c r="G829">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H829">
         <v>65</v>
@@ -32883,7 +32883,7 @@
         <v>22</v>
       </c>
       <c r="G830">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H830">
         <v>88</v>
@@ -32915,7 +32915,7 @@
         <v>25</v>
       </c>
       <c r="G831">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H831">
         <v>86</v>
@@ -32947,7 +32947,7 @@
         <v>11</v>
       </c>
       <c r="G832">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H832">
         <v>41</v>
@@ -32979,7 +32979,7 @@
         <v>16</v>
       </c>
       <c r="G833">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H833">
         <v>33</v>
@@ -33011,7 +33011,7 @@
         <v>19</v>
       </c>
       <c r="G834">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H834">
         <v>35</v>
@@ -33043,7 +33043,7 @@
         <v>22</v>
       </c>
       <c r="G835">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H835">
         <v>70</v>
@@ -33075,7 +33075,7 @@
         <v>25</v>
       </c>
       <c r="G836">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H836">
         <v>54</v>
@@ -33107,7 +33107,7 @@
         <v>11</v>
       </c>
       <c r="G837">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H837">
         <v>80</v>
@@ -33139,7 +33139,7 @@
         <v>16</v>
       </c>
       <c r="G838">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H838">
         <v>78</v>
@@ -33171,7 +33171,7 @@
         <v>19</v>
       </c>
       <c r="G839">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H839">
         <v>41</v>
@@ -33203,7 +33203,7 @@
         <v>22</v>
       </c>
       <c r="G840">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H840">
         <v>69</v>
@@ -33235,7 +33235,7 @@
         <v>25</v>
       </c>
       <c r="G841">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H841">
         <v>30</v>
@@ -33267,7 +33267,7 @@
         <v>11</v>
       </c>
       <c r="G842">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H842">
         <v>59</v>
@@ -33299,7 +33299,7 @@
         <v>16</v>
       </c>
       <c r="G843">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H843">
         <v>40</v>
@@ -33331,7 +33331,7 @@
         <v>19</v>
       </c>
       <c r="G844">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H844">
         <v>91</v>
@@ -33363,7 +33363,7 @@
         <v>22</v>
       </c>
       <c r="G845">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H845">
         <v>50</v>
@@ -33395,7 +33395,7 @@
         <v>25</v>
       </c>
       <c r="G846">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H846">
         <v>83</v>
@@ -33427,7 +33427,7 @@
         <v>11</v>
       </c>
       <c r="G847">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H847">
         <v>100</v>
@@ -33459,7 +33459,7 @@
         <v>16</v>
       </c>
       <c r="G848">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H848">
         <v>42</v>
@@ -33491,7 +33491,7 @@
         <v>19</v>
       </c>
       <c r="G849">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H849">
         <v>62</v>
@@ -33523,7 +33523,7 @@
         <v>22</v>
       </c>
       <c r="G850">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H850">
         <v>4</v>
@@ -33555,7 +33555,7 @@
         <v>25</v>
       </c>
       <c r="G851">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H851">
         <v>2</v>
@@ -33587,7 +33587,7 @@
         <v>11</v>
       </c>
       <c r="G852">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H852">
         <v>81</v>
@@ -33619,7 +33619,7 @@
         <v>16</v>
       </c>
       <c r="G853">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H853">
         <v>48</v>
@@ -33651,7 +33651,7 @@
         <v>19</v>
       </c>
       <c r="G854">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H854">
         <v>53</v>
@@ -33683,7 +33683,7 @@
         <v>22</v>
       </c>
       <c r="G855">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H855">
         <v>34</v>
@@ -33715,7 +33715,7 @@
         <v>25</v>
       </c>
       <c r="G856">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H856">
         <v>61</v>
@@ -33747,7 +33747,7 @@
         <v>11</v>
       </c>
       <c r="G857">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H857">
         <v>71</v>
@@ -33779,7 +33779,7 @@
         <v>16</v>
       </c>
       <c r="G858">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H858">
         <v>70</v>
@@ -33811,7 +33811,7 @@
         <v>19</v>
       </c>
       <c r="G859">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H859">
         <v>25</v>
@@ -33843,7 +33843,7 @@
         <v>22</v>
       </c>
       <c r="G860">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H860">
         <v>91</v>
@@ -33875,7 +33875,7 @@
         <v>25</v>
       </c>
       <c r="G861">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H861">
         <v>37</v>
@@ -33907,7 +33907,7 @@
         <v>11</v>
       </c>
       <c r="G862">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H862">
         <v>75</v>
@@ -33939,7 +33939,7 @@
         <v>16</v>
       </c>
       <c r="G863">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H863">
         <v>55</v>
@@ -33971,7 +33971,7 @@
         <v>19</v>
       </c>
       <c r="G864">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H864">
         <v>28</v>
@@ -34003,7 +34003,7 @@
         <v>22</v>
       </c>
       <c r="G865">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H865">
         <v>89</v>
@@ -34035,7 +34035,7 @@
         <v>25</v>
       </c>
       <c r="G866">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H866">
         <v>45</v>
@@ -34067,7 +34067,7 @@
         <v>11</v>
       </c>
       <c r="G867">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H867">
         <v>48</v>
@@ -34099,7 +34099,7 @@
         <v>16</v>
       </c>
       <c r="G868">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H868">
         <v>78</v>
@@ -34131,7 +34131,7 @@
         <v>19</v>
       </c>
       <c r="G869">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H869">
         <v>90</v>
@@ -34163,7 +34163,7 @@
         <v>22</v>
       </c>
       <c r="G870">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H870">
         <v>73</v>
@@ -34195,7 +34195,7 @@
         <v>25</v>
       </c>
       <c r="G871">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H871">
         <v>80</v>
@@ -34227,7 +34227,7 @@
         <v>11</v>
       </c>
       <c r="G872">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H872">
         <v>45</v>
@@ -34259,7 +34259,7 @@
         <v>16</v>
       </c>
       <c r="G873">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H873">
         <v>5</v>
@@ -34291,7 +34291,7 @@
         <v>19</v>
       </c>
       <c r="G874">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H874">
         <v>77</v>
@@ -34323,7 +34323,7 @@
         <v>22</v>
       </c>
       <c r="G875">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H875">
         <v>75</v>
@@ -34355,7 +34355,7 @@
         <v>25</v>
       </c>
       <c r="G876">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H876">
         <v>53</v>
@@ -34387,7 +34387,7 @@
         <v>11</v>
       </c>
       <c r="G877">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H877">
         <v>41</v>
@@ -34419,7 +34419,7 @@
         <v>16</v>
       </c>
       <c r="G878">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H878">
         <v>86</v>
@@ -34451,7 +34451,7 @@
         <v>19</v>
       </c>
       <c r="G879">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H879">
         <v>34</v>
@@ -34483,7 +34483,7 @@
         <v>22</v>
       </c>
       <c r="G880">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H880">
         <v>60</v>
@@ -34515,7 +34515,7 @@
         <v>25</v>
       </c>
       <c r="G881">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H881">
         <v>89</v>
@@ -34547,7 +34547,7 @@
         <v>11</v>
       </c>
       <c r="G882">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H882">
         <v>66</v>
@@ -34579,7 +34579,7 @@
         <v>16</v>
       </c>
       <c r="G883">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H883">
         <v>58</v>
@@ -34611,7 +34611,7 @@
         <v>19</v>
       </c>
       <c r="G884">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H884">
         <v>38</v>
@@ -34643,7 +34643,7 @@
         <v>22</v>
       </c>
       <c r="G885">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H885">
         <v>34</v>
@@ -34675,7 +34675,7 @@
         <v>25</v>
       </c>
       <c r="G886">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H886">
         <v>35</v>
@@ -34707,7 +34707,7 @@
         <v>11</v>
       </c>
       <c r="G887">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H887">
         <v>53</v>
@@ -34739,7 +34739,7 @@
         <v>16</v>
       </c>
       <c r="G888">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H888">
         <v>80</v>
@@ -34771,7 +34771,7 @@
         <v>19</v>
       </c>
       <c r="G889">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H889">
         <v>92</v>
@@ -34803,7 +34803,7 @@
         <v>22</v>
       </c>
       <c r="G890">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H890">
         <v>81</v>
@@ -34835,7 +34835,7 @@
         <v>25</v>
       </c>
       <c r="G891">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H891">
         <v>52</v>
@@ -34867,7 +34867,7 @@
         <v>11</v>
       </c>
       <c r="G892">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H892">
         <v>42</v>
@@ -34899,7 +34899,7 @@
         <v>16</v>
       </c>
       <c r="G893">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H893">
         <v>62</v>
@@ -34931,7 +34931,7 @@
         <v>19</v>
       </c>
       <c r="G894">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H894">
         <v>52</v>
@@ -34963,7 +34963,7 @@
         <v>22</v>
       </c>
       <c r="G895">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H895">
         <v>71</v>
@@ -34995,7 +34995,7 @@
         <v>25</v>
       </c>
       <c r="G896">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H896">
         <v>52</v>
@@ -35027,7 +35027,7 @@
         <v>11</v>
       </c>
       <c r="G897">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H897">
         <v>85</v>
@@ -35059,7 +35059,7 @@
         <v>16</v>
       </c>
       <c r="G898">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H898">
         <v>52</v>
@@ -35091,7 +35091,7 @@
         <v>19</v>
       </c>
       <c r="G899">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H899">
         <v>47</v>
@@ -35123,7 +35123,7 @@
         <v>22</v>
       </c>
       <c r="G900">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H900">
         <v>39</v>
@@ -35155,7 +35155,7 @@
         <v>25</v>
       </c>
       <c r="G901">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H901">
         <v>61</v>
@@ -35187,7 +35187,7 @@
         <v>11</v>
       </c>
       <c r="G902">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H902">
         <v>74</v>
@@ -35219,7 +35219,7 @@
         <v>16</v>
       </c>
       <c r="G903">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H903">
         <v>72</v>
@@ -35251,7 +35251,7 @@
         <v>19</v>
       </c>
       <c r="G904">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H904">
         <v>33</v>
@@ -35283,7 +35283,7 @@
         <v>22</v>
       </c>
       <c r="G905">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H905">
         <v>64</v>
@@ -35315,7 +35315,7 @@
         <v>25</v>
       </c>
       <c r="G906">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H906">
         <v>82</v>
@@ -35347,7 +35347,7 @@
         <v>11</v>
       </c>
       <c r="G907">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H907">
         <v>79</v>
@@ -35379,7 +35379,7 @@
         <v>16</v>
       </c>
       <c r="G908">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H908">
         <v>39</v>
@@ -35411,7 +35411,7 @@
         <v>19</v>
       </c>
       <c r="G909">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H909">
         <v>90</v>
@@ -35443,7 +35443,7 @@
         <v>22</v>
       </c>
       <c r="G910">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H910">
         <v>89</v>
@@ -35475,7 +35475,7 @@
         <v>25</v>
       </c>
       <c r="G911">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H911">
         <v>59</v>
@@ -35507,7 +35507,7 @@
         <v>11</v>
       </c>
       <c r="G912">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H912">
         <v>89</v>
@@ -35539,7 +35539,7 @@
         <v>16</v>
       </c>
       <c r="G913">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H913">
         <v>79</v>
@@ -35571,7 +35571,7 @@
         <v>19</v>
       </c>
       <c r="G914">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H914">
         <v>54</v>
@@ -35603,7 +35603,7 @@
         <v>22</v>
       </c>
       <c r="G915">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H915">
         <v>61</v>
@@ -35635,7 +35635,7 @@
         <v>25</v>
       </c>
       <c r="G916">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H916">
         <v>91</v>
@@ -35667,7 +35667,7 @@
         <v>11</v>
       </c>
       <c r="G917">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H917">
         <v>39</v>
@@ -35699,7 +35699,7 @@
         <v>16</v>
       </c>
       <c r="G918">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H918">
         <v>92</v>
@@ -35731,7 +35731,7 @@
         <v>19</v>
       </c>
       <c r="G919">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H919">
         <v>56</v>
@@ -35763,7 +35763,7 @@
         <v>22</v>
       </c>
       <c r="G920">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H920">
         <v>64</v>
@@ -35795,7 +35795,7 @@
         <v>25</v>
       </c>
       <c r="G921">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H921">
         <v>69</v>
@@ -35827,7 +35827,7 @@
         <v>11</v>
       </c>
       <c r="G922">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H922">
         <v>55</v>
@@ -35859,7 +35859,7 @@
         <v>16</v>
       </c>
       <c r="G923">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H923">
         <v>100</v>
@@ -35891,7 +35891,7 @@
         <v>19</v>
       </c>
       <c r="G924">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H924">
         <v>49</v>
@@ -35923,7 +35923,7 @@
         <v>22</v>
       </c>
       <c r="G925">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H925">
         <v>39</v>
@@ -35955,7 +35955,7 @@
         <v>25</v>
       </c>
       <c r="G926">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H926">
         <v>69</v>
@@ -35987,7 +35987,7 @@
         <v>11</v>
       </c>
       <c r="G927">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H927">
         <v>69</v>
@@ -36019,7 +36019,7 @@
         <v>16</v>
       </c>
       <c r="G928">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H928">
         <v>38</v>
@@ -36051,7 +36051,7 @@
         <v>19</v>
       </c>
       <c r="G929">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H929">
         <v>59</v>
@@ -36083,7 +36083,7 @@
         <v>22</v>
       </c>
       <c r="G930">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H930">
         <v>69</v>
@@ -36115,7 +36115,7 @@
         <v>25</v>
       </c>
       <c r="G931">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H931">
         <v>38</v>
@@ -36147,7 +36147,7 @@
         <v>11</v>
       </c>
       <c r="G932">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H932">
         <v>85</v>
@@ -36179,7 +36179,7 @@
         <v>16</v>
       </c>
       <c r="G933">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H933">
         <v>61</v>
@@ -36211,7 +36211,7 @@
         <v>19</v>
       </c>
       <c r="G934">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H934">
         <v>73</v>
@@ -36243,7 +36243,7 @@
         <v>22</v>
       </c>
       <c r="G935">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H935">
         <v>53</v>
@@ -36275,7 +36275,7 @@
         <v>25</v>
       </c>
       <c r="G936">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H936">
         <v>84</v>
@@ -36307,7 +36307,7 @@
         <v>11</v>
       </c>
       <c r="G937">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H937">
         <v>60</v>
@@ -36339,7 +36339,7 @@
         <v>16</v>
       </c>
       <c r="G938">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H938">
         <v>66</v>
@@ -36371,7 +36371,7 @@
         <v>19</v>
       </c>
       <c r="G939">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H939">
         <v>78</v>
@@ -36403,7 +36403,7 @@
         <v>22</v>
       </c>
       <c r="G940">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H940">
         <v>64</v>
@@ -36435,7 +36435,7 @@
         <v>25</v>
       </c>
       <c r="G941">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H941">
         <v>54</v>
@@ -36467,7 +36467,7 @@
         <v>11</v>
       </c>
       <c r="G942">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H942">
         <v>73</v>
@@ -36499,7 +36499,7 @@
         <v>16</v>
       </c>
       <c r="G943">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H943">
         <v>74</v>
@@ -36531,7 +36531,7 @@
         <v>19</v>
       </c>
       <c r="G944">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H944">
         <v>84</v>
@@ -36563,7 +36563,7 @@
         <v>22</v>
       </c>
       <c r="G945">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H945">
         <v>41</v>
@@ -36595,7 +36595,7 @@
         <v>25</v>
       </c>
       <c r="G946">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H946">
         <v>74</v>
@@ -36627,7 +36627,7 @@
         <v>11</v>
       </c>
       <c r="G947">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H947">
         <v>75</v>
@@ -36659,7 +36659,7 @@
         <v>16</v>
       </c>
       <c r="G948">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H948">
         <v>68</v>
@@ -36691,7 +36691,7 @@
         <v>19</v>
       </c>
       <c r="G949">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H949">
         <v>96</v>
@@ -36723,7 +36723,7 @@
         <v>22</v>
       </c>
       <c r="G950">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H950">
         <v>64</v>
@@ -36755,7 +36755,7 @@
         <v>25</v>
       </c>
       <c r="G951">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H951">
         <v>52</v>
@@ -36787,7 +36787,7 @@
         <v>11</v>
       </c>
       <c r="G952">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H952">
         <v>57</v>
@@ -36819,7 +36819,7 @@
         <v>16</v>
       </c>
       <c r="G953">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H953">
         <v>24</v>
@@ -36851,7 +36851,7 @@
         <v>19</v>
       </c>
       <c r="G954">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H954">
         <v>72</v>
@@ -36883,7 +36883,7 @@
         <v>22</v>
       </c>
       <c r="G955">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H955">
         <v>69</v>
@@ -36915,7 +36915,7 @@
         <v>25</v>
       </c>
       <c r="G956">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H956">
         <v>53</v>
@@ -36947,7 +36947,7 @@
         <v>11</v>
       </c>
       <c r="G957">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H957">
         <v>20</v>
@@ -36979,7 +36979,7 @@
         <v>16</v>
       </c>
       <c r="G958">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H958">
         <v>56</v>
@@ -37011,7 +37011,7 @@
         <v>19</v>
       </c>
       <c r="G959">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H959">
         <v>41</v>
@@ -37043,7 +37043,7 @@
         <v>22</v>
       </c>
       <c r="G960">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H960">
         <v>65</v>
@@ -37075,7 +37075,7 @@
         <v>25</v>
       </c>
       <c r="G961">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H961">
         <v>51</v>
@@ -37107,7 +37107,7 @@
         <v>11</v>
       </c>
       <c r="G962">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H962">
         <v>49</v>
@@ -37139,7 +37139,7 @@
         <v>16</v>
       </c>
       <c r="G963">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H963">
         <v>45</v>
@@ -37171,7 +37171,7 @@
         <v>19</v>
       </c>
       <c r="G964">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H964">
         <v>45</v>
@@ -37203,7 +37203,7 @@
         <v>22</v>
       </c>
       <c r="G965">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H965">
         <v>67</v>
@@ -37235,7 +37235,7 @@
         <v>25</v>
       </c>
       <c r="G966">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H966">
         <v>77</v>
@@ -37267,7 +37267,7 @@
         <v>11</v>
       </c>
       <c r="G967">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H967">
         <v>38</v>
@@ -37299,7 +37299,7 @@
         <v>16</v>
       </c>
       <c r="G968">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H968">
         <v>28</v>
@@ -37331,7 +37331,7 @@
         <v>19</v>
       </c>
       <c r="G969">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H969">
         <v>48</v>
@@ -37363,7 +37363,7 @@
         <v>22</v>
       </c>
       <c r="G970">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H970">
         <v>69</v>
@@ -37395,7 +37395,7 @@
         <v>25</v>
       </c>
       <c r="G971">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H971">
         <v>24</v>
@@ -37427,7 +37427,7 @@
         <v>11</v>
       </c>
       <c r="G972">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H972">
         <v>9</v>
@@ -37459,7 +37459,7 @@
         <v>16</v>
       </c>
       <c r="G973">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H973">
         <v>61</v>
@@ -37491,7 +37491,7 @@
         <v>19</v>
       </c>
       <c r="G974">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H974">
         <v>54</v>
@@ -37523,7 +37523,7 @@
         <v>22</v>
       </c>
       <c r="G975">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H975">
         <v>63</v>
@@ -37555,7 +37555,7 @@
         <v>25</v>
       </c>
       <c r="G976">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H976">
         <v>56</v>
@@ -37587,7 +37587,7 @@
         <v>11</v>
       </c>
       <c r="G977">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H977">
         <v>65</v>
@@ -37619,7 +37619,7 @@
         <v>16</v>
       </c>
       <c r="G978">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H978">
         <v>36</v>
@@ -37651,7 +37651,7 @@
         <v>19</v>
       </c>
       <c r="G979">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H979">
         <v>51</v>
@@ -37683,7 +37683,7 @@
         <v>22</v>
       </c>
       <c r="G980">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H980">
         <v>65</v>
@@ -37715,7 +37715,7 @@
         <v>25</v>
       </c>
       <c r="G981">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H981">
         <v>66</v>
@@ -37747,7 +37747,7 @@
         <v>11</v>
       </c>
       <c r="G982">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H982">
         <v>77</v>
@@ -37779,7 +37779,7 @@
         <v>16</v>
       </c>
       <c r="G983">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H983">
         <v>58</v>
@@ -37811,7 +37811,7 @@
         <v>19</v>
       </c>
       <c r="G984">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H984">
         <v>43</v>
@@ -37843,7 +37843,7 @@
         <v>22</v>
       </c>
       <c r="G985">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H985">
         <v>47</v>
@@ -37875,7 +37875,7 @@
         <v>25</v>
       </c>
       <c r="G986">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H986">
         <v>86</v>
@@ -37907,7 +37907,7 @@
         <v>11</v>
       </c>
       <c r="G987">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H987">
         <v>98</v>
@@ -37939,7 +37939,7 @@
         <v>16</v>
       </c>
       <c r="G988">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H988">
         <v>56</v>
@@ -37971,7 +37971,7 @@
         <v>19</v>
       </c>
       <c r="G989">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H989">
         <v>43</v>
@@ -38003,7 +38003,7 @@
         <v>22</v>
       </c>
       <c r="G990">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H990">
         <v>73</v>
@@ -38035,7 +38035,7 @@
         <v>25</v>
       </c>
       <c r="G991">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H991">
         <v>6</v>
@@ -38067,7 +38067,7 @@
         <v>11</v>
       </c>
       <c r="G992">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H992">
         <v>97</v>
@@ -38099,7 +38099,7 @@
         <v>16</v>
       </c>
       <c r="G993">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H993">
         <v>93</v>
@@ -38131,7 +38131,7 @@
         <v>19</v>
       </c>
       <c r="G994">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H994">
         <v>40</v>
@@ -38163,7 +38163,7 @@
         <v>22</v>
       </c>
       <c r="G995">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H995">
         <v>45</v>
@@ -38195,7 +38195,7 @@
         <v>25</v>
       </c>
       <c r="G996">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H996">
         <v>44</v>
@@ -38227,7 +38227,7 @@
         <v>11</v>
       </c>
       <c r="G997">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H997">
         <v>100</v>
@@ -38259,7 +38259,7 @@
         <v>16</v>
       </c>
       <c r="G998">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H998">
         <v>84</v>
@@ -38291,7 +38291,7 @@
         <v>19</v>
       </c>
       <c r="G999">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H999">
         <v>100</v>
@@ -38323,7 +38323,7 @@
         <v>22</v>
       </c>
       <c r="G1000">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1000">
         <v>38</v>
@@ -38355,7 +38355,7 @@
         <v>25</v>
       </c>
       <c r="G1001">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1001">
         <v>59</v>
@@ -38387,7 +38387,7 @@
         <v>19</v>
       </c>
       <c r="G1002">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1002">
         <v>70</v>
@@ -38414,5 +38414,6 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>